--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.488218330882546</v>
+        <v>2.48821833088266</v>
       </c>
       <c r="C2">
-        <v>0.5983375201788022</v>
+        <v>0.5983375201790011</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6817592231496832</v>
+        <v>0.681759223149669</v>
       </c>
       <c r="F2">
         <v>2.402726994665244</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2057289416425654</v>
+        <v>0.2057289416425867</v>
       </c>
       <c r="J2">
-        <v>0.6913221206064719</v>
+        <v>0.6913221206064648</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.144177458754825</v>
+        <v>2.144177458754882</v>
       </c>
       <c r="C3">
-        <v>0.5180413498513303</v>
+        <v>0.5180413498512451</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5885597287144648</v>
+        <v>0.5885597287144719</v>
       </c>
       <c r="F3">
-        <v>2.073743757790112</v>
+        <v>2.073743757790098</v>
       </c>
       <c r="G3">
-        <v>1.185340665925793</v>
+        <v>1.185340665925807</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0.1837379611636614</v>
       </c>
       <c r="J3">
-        <v>0.5958581221727073</v>
+        <v>0.5958581221727144</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936027598787319</v>
+        <v>1.936027598787405</v>
       </c>
       <c r="C4">
-        <v>0.4693826968157566</v>
+        <v>0.4693826968157282</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5321802330169731</v>
+        <v>0.5321802330169874</v>
       </c>
       <c r="F4">
-        <v>1.876782227583931</v>
+        <v>1.876782227583917</v>
       </c>
       <c r="G4">
-        <v>1.103531942292392</v>
+        <v>1.103531942292406</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1709904603612422</v>
+        <v>0.1709904603612209</v>
       </c>
       <c r="J4">
-        <v>0.5380731638488925</v>
+        <v>0.5380731638488854</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851856150332338</v>
+        <v>1.85185615033231</v>
       </c>
       <c r="C5">
-        <v>0.4496847750450854</v>
+        <v>0.4496847750451138</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.509379338412046</v>
+        <v>0.5093793384120318</v>
       </c>
       <c r="F5">
-        <v>1.797615470875542</v>
+        <v>1.797615470875527</v>
       </c>
       <c r="G5">
-        <v>1.07109915326393</v>
+        <v>1.071099153263944</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1659629268126075</v>
+        <v>0.1659629268126039</v>
       </c>
       <c r="J5">
         <v>0.5146986932462454</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.837915417923739</v>
+        <v>1.837915417923853</v>
       </c>
       <c r="C6">
         <v>0.4464210087259914</v>
@@ -576,19 +576,19 @@
         <v>0.5056027399756076</v>
       </c>
       <c r="F6">
-        <v>1.784531464649874</v>
+        <v>1.784531464649845</v>
       </c>
       <c r="G6">
-        <v>1.065765229436352</v>
+        <v>1.065765229436323</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1651375856408634</v>
+        <v>0.1651375856408883</v>
       </c>
       <c r="J6">
-        <v>0.5108268806655687</v>
+        <v>0.5108268806655474</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.934889954273302</v>
+        <v>1.934889954273444</v>
       </c>
       <c r="C7">
-        <v>0.4691165524895666</v>
+        <v>0.4691165524895382</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5318720747328172</v>
+        <v>0.5318720747328243</v>
       </c>
       <c r="F7">
-        <v>1.875710329422063</v>
+        <v>1.875710329422049</v>
       </c>
       <c r="G7">
-        <v>1.103091021577555</v>
+        <v>1.103091021577541</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1709220087149603</v>
+        <v>0.1709220087149639</v>
       </c>
       <c r="J7">
-        <v>0.5377572699201707</v>
+        <v>0.5377572699201636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368871075576919</v>
+        <v>2.368871075576976</v>
       </c>
       <c r="C8">
-        <v>0.5704981781822767</v>
+        <v>0.5704981781823051</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6494242059360715</v>
+        <v>0.6494242059360857</v>
       </c>
       <c r="F8">
         <v>2.288141236128837</v>
       </c>
       <c r="G8">
-        <v>1.276049570382767</v>
+        <v>1.276049570382796</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0.197975330377556</v>
       </c>
       <c r="J8">
-        <v>0.6582113355811359</v>
+        <v>0.6582113355811643</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.250898455608819</v>
+        <v>3.250898455608876</v>
       </c>
       <c r="C9">
-        <v>0.7760028437674862</v>
+        <v>0.7760028437674293</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8886220922265693</v>
+        <v>0.8886220922265551</v>
       </c>
       <c r="F9">
-        <v>3.145477925732649</v>
+        <v>3.145477925732621</v>
       </c>
       <c r="G9">
-        <v>1.653165174462941</v>
+        <v>1.653165174462927</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2581816932169332</v>
+        <v>0.258181693216919</v>
       </c>
       <c r="J9">
         <v>0.9028213043041546</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.928163262982991</v>
+        <v>3.928163262983105</v>
       </c>
       <c r="C10">
-        <v>0.9336354722315718</v>
+        <v>0.9336354722318276</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.072836548847107</v>
+        <v>1.072836548847135</v>
       </c>
       <c r="F10">
         <v>3.818695854522645</v>
       </c>
       <c r="G10">
-        <v>1.962596334680271</v>
+        <v>1.962596334680285</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3086604210547748</v>
+        <v>0.3086604210547961</v>
       </c>
       <c r="J10">
-        <v>1.090566745090698</v>
+        <v>1.090566745090712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.245378072844801</v>
+        <v>4.245378072844687</v>
       </c>
       <c r="C11">
         <v>1.007481943736622</v>
@@ -763,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.159341415505907</v>
+        <v>1.159341415505921</v>
       </c>
       <c r="F11">
         <v>4.138020215367447</v>
       </c>
       <c r="G11">
-        <v>2.11285312880824</v>
+        <v>2.112853128808268</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3334927025884653</v>
+        <v>0.333492702588444</v>
       </c>
       <c r="J11">
-        <v>1.178499056875324</v>
+        <v>1.178499056875381</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367085067696223</v>
+        <v>4.367085067696166</v>
       </c>
       <c r="C12">
-        <v>1.035822494078417</v>
+        <v>1.035822494078587</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.192573972743887</v>
+        <v>1.192573972743929</v>
       </c>
       <c r="F12">
         <v>4.261182476415058</v>
       </c>
       <c r="G12">
-        <v>2.171362092976764</v>
+        <v>2.171362092976736</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3432167852652057</v>
+        <v>0.3432167852651844</v>
       </c>
       <c r="J12">
-        <v>1.212237403400948</v>
+        <v>1.212237403400934</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.340797992540047</v>
       </c>
       <c r="C13">
-        <v>1.029700880367045</v>
+        <v>1.02970088036659</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.185394088097667</v>
+        <v>1.185394088097695</v>
       </c>
       <c r="F13">
         <v>4.234551231459307</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3411073445593686</v>
+        <v>0.3411073445593615</v>
       </c>
       <c r="J13">
         <v>1.204950301345576</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.255357502451545</v>
+        <v>4.255357502451602</v>
       </c>
       <c r="C14">
-        <v>1.009805555585046</v>
+        <v>1.009805555585245</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.162065411309754</v>
+        <v>1.162065411309783</v>
       </c>
       <c r="F14">
-        <v>4.148105658986054</v>
+        <v>4.148105658986026</v>
       </c>
       <c r="G14">
-        <v>2.117632886366863</v>
+        <v>2.117632886366849</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.20323794375804</v>
+        <v>4.203237943758268</v>
       </c>
       <c r="C15">
-        <v>0.9976703704959391</v>
+        <v>0.9976703704957117</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.147840594496913</v>
+        <v>1.147840594496941</v>
       </c>
       <c r="F15">
         <v>4.095458802949281</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3301511046764745</v>
+        <v>0.330151104676446</v>
       </c>
       <c r="J15">
-        <v>1.166817586931046</v>
+        <v>1.16681758693106</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.907638454945243</v>
+        <v>3.9076384549453</v>
       </c>
       <c r="C16">
-        <v>0.9288581042375199</v>
+        <v>0.9288581042370652</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>1.067244713549528</v>
       </c>
       <c r="F16">
-        <v>3.798119922293296</v>
+        <v>3.798119922293324</v>
       </c>
       <c r="G16">
-        <v>1.952987794942075</v>
+        <v>1.952987794942104</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3070794163820665</v>
+        <v>0.3070794163820452</v>
       </c>
       <c r="J16">
-        <v>1.08487729966653</v>
+        <v>1.084877299666545</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.728815352608365</v>
+        <v>3.728815352608137</v>
       </c>
       <c r="C17">
         <v>0.88723734775445</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.018551363615686</v>
+        <v>1.018551363615657</v>
       </c>
       <c r="F17">
         <v>3.619300292623166</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2934385945953579</v>
+        <v>0.2934385945953721</v>
       </c>
       <c r="J17">
-        <v>1.035307611169202</v>
+        <v>1.035307611169188</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.626801154314933</v>
+        <v>3.626801154314819</v>
       </c>
       <c r="C18">
-        <v>0.8634947458456281</v>
+        <v>0.8634947458455144</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9907928984280119</v>
+        <v>0.9907928984280261</v>
       </c>
       <c r="F18">
         <v>3.517653917401788</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2857651174552345</v>
+        <v>0.2857651174552132</v>
       </c>
       <c r="J18">
-        <v>1.007028918804806</v>
+        <v>1.007028918804792</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.592397568784065</v>
+        <v>3.592397568783952</v>
       </c>
       <c r="C19">
-        <v>0.8554877470453448</v>
+        <v>0.8554877470454869</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9814346729422141</v>
+        <v>0.9814346729421999</v>
       </c>
       <c r="F19">
         <v>3.483435225117404</v>
       </c>
       <c r="G19">
-        <v>1.807193900132631</v>
+        <v>1.80719390013266</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0.2831951761688032</v>
       </c>
       <c r="J19">
-        <v>0.9974920163144247</v>
+        <v>0.997492016314439</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.747762589013917</v>
+        <v>3.74776258901403</v>
       </c>
       <c r="C20">
-        <v>0.8916471418897629</v>
+        <v>0.8916471418898482</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.02370854024835</v>
+        <v>1.023708540248307</v>
       </c>
       <c r="F20">
-        <v>3.63820870072874</v>
+        <v>3.638208700728711</v>
       </c>
       <c r="G20">
-        <v>1.878625633099617</v>
+        <v>1.878625633099631</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2948724972815882</v>
+        <v>0.2948724972815597</v>
       </c>
       <c r="J20">
-        <v>1.040559808939307</v>
+        <v>1.040559808939292</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.280408045802574</v>
+        <v>4.28040804580246</v>
       </c>
       <c r="C21">
-        <v>1.015638468952375</v>
+        <v>1.015638468952403</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.168903956646787</v>
+        <v>1.16890395664673</v>
       </c>
       <c r="F21">
-        <v>4.17343283063019</v>
+        <v>4.173432830630219</v>
       </c>
       <c r="G21">
-        <v>2.129645106202773</v>
+        <v>2.129645106202787</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3362803998747168</v>
+        <v>0.3362803998747381</v>
       </c>
       <c r="J21">
-        <v>1.188209617685402</v>
+        <v>1.188209617685416</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.637919369285385</v>
+        <v>4.637919369285441</v>
       </c>
       <c r="C22">
-        <v>1.098909406148124</v>
+        <v>1.09890940614784</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.266617773257394</v>
+        <v>1.266617773257437</v>
       </c>
       <c r="F22">
-        <v>4.536507290266456</v>
+        <v>4.536507290266428</v>
       </c>
       <c r="G22">
-        <v>2.303229076941605</v>
+        <v>2.303229076941633</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3652429039430203</v>
+        <v>0.365242903942999</v>
       </c>
       <c r="J22">
-        <v>1.28731905154612</v>
+        <v>1.287319051546135</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446146927856944</v>
+        <v>4.446146927857114</v>
       </c>
       <c r="C23">
-        <v>1.054235627394547</v>
+        <v>1.054235627394775</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.214175529681683</v>
+        <v>1.214175529681668</v>
       </c>
       <c r="F23">
         <v>4.341377884687518</v>
       </c>
       <c r="G23">
-        <v>2.209620512142223</v>
+        <v>2.209620512142237</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.739194091592879</v>
+        <v>3.739194091592822</v>
       </c>
       <c r="C24">
-        <v>0.8896529005158698</v>
+        <v>0.8896529005157277</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.021376251927208</v>
+        <v>1.021376251927236</v>
       </c>
       <c r="F24">
-        <v>3.629656624607321</v>
+        <v>3.629656624607378</v>
       </c>
       <c r="G24">
-        <v>1.874664572987868</v>
+        <v>1.874664572987896</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2942237078509038</v>
+        <v>0.2942237078508825</v>
       </c>
       <c r="J24">
         <v>1.038184612027848</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007984588553711</v>
+        <v>3.007984588553882</v>
       </c>
       <c r="C25">
-        <v>0.7194484166225266</v>
+        <v>0.7194484166225834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8226821172720662</v>
+        <v>0.8226821172721372</v>
       </c>
       <c r="F25">
-        <v>2.907038857578755</v>
+        <v>2.907038857578726</v>
       </c>
       <c r="G25">
         <v>1.546204407935065</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2409504861340324</v>
+        <v>0.2409504861340395</v>
       </c>
       <c r="J25">
-        <v>0.8354720397852162</v>
+        <v>0.8354720397852446</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.48821833088266</v>
+        <v>2.488218330882546</v>
       </c>
       <c r="C2">
-        <v>0.5983375201790011</v>
+        <v>0.5983375201788022</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.681759223149669</v>
+        <v>0.6817592231496832</v>
       </c>
       <c r="F2">
         <v>2.402726994665244</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2057289416425867</v>
+        <v>0.2057289416425654</v>
       </c>
       <c r="J2">
-        <v>0.6913221206064648</v>
+        <v>0.6913221206064719</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.144177458754882</v>
+        <v>2.144177458754825</v>
       </c>
       <c r="C3">
-        <v>0.5180413498512451</v>
+        <v>0.5180413498513303</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5885597287144719</v>
+        <v>0.5885597287144648</v>
       </c>
       <c r="F3">
-        <v>2.073743757790098</v>
+        <v>2.073743757790112</v>
       </c>
       <c r="G3">
-        <v>1.185340665925807</v>
+        <v>1.185340665925793</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0.1837379611636614</v>
       </c>
       <c r="J3">
-        <v>0.5958581221727144</v>
+        <v>0.5958581221727073</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936027598787405</v>
+        <v>1.936027598787319</v>
       </c>
       <c r="C4">
-        <v>0.4693826968157282</v>
+        <v>0.4693826968157566</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5321802330169874</v>
+        <v>0.5321802330169731</v>
       </c>
       <c r="F4">
-        <v>1.876782227583917</v>
+        <v>1.876782227583931</v>
       </c>
       <c r="G4">
-        <v>1.103531942292406</v>
+        <v>1.103531942292392</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1709904603612209</v>
+        <v>0.1709904603612422</v>
       </c>
       <c r="J4">
-        <v>0.5380731638488854</v>
+        <v>0.5380731638488925</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85185615033231</v>
+        <v>1.851856150332338</v>
       </c>
       <c r="C5">
-        <v>0.4496847750451138</v>
+        <v>0.4496847750450854</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5093793384120318</v>
+        <v>0.509379338412046</v>
       </c>
       <c r="F5">
-        <v>1.797615470875527</v>
+        <v>1.797615470875542</v>
       </c>
       <c r="G5">
-        <v>1.071099153263944</v>
+        <v>1.07109915326393</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1659629268126039</v>
+        <v>0.1659629268126075</v>
       </c>
       <c r="J5">
         <v>0.5146986932462454</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.837915417923853</v>
+        <v>1.837915417923739</v>
       </c>
       <c r="C6">
         <v>0.4464210087259914</v>
@@ -576,19 +576,19 @@
         <v>0.5056027399756076</v>
       </c>
       <c r="F6">
-        <v>1.784531464649845</v>
+        <v>1.784531464649874</v>
       </c>
       <c r="G6">
-        <v>1.065765229436323</v>
+        <v>1.065765229436352</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1651375856408883</v>
+        <v>0.1651375856408634</v>
       </c>
       <c r="J6">
-        <v>0.5108268806655474</v>
+        <v>0.5108268806655687</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.934889954273444</v>
+        <v>1.934889954273302</v>
       </c>
       <c r="C7">
-        <v>0.4691165524895382</v>
+        <v>0.4691165524895666</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5318720747328243</v>
+        <v>0.5318720747328172</v>
       </c>
       <c r="F7">
-        <v>1.875710329422049</v>
+        <v>1.875710329422063</v>
       </c>
       <c r="G7">
-        <v>1.103091021577541</v>
+        <v>1.103091021577555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1709220087149639</v>
+        <v>0.1709220087149603</v>
       </c>
       <c r="J7">
-        <v>0.5377572699201636</v>
+        <v>0.5377572699201707</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368871075576976</v>
+        <v>2.368871075576919</v>
       </c>
       <c r="C8">
-        <v>0.5704981781823051</v>
+        <v>0.5704981781822767</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6494242059360857</v>
+        <v>0.6494242059360715</v>
       </c>
       <c r="F8">
         <v>2.288141236128837</v>
       </c>
       <c r="G8">
-        <v>1.276049570382796</v>
+        <v>1.276049570382767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0.197975330377556</v>
       </c>
       <c r="J8">
-        <v>0.6582113355811643</v>
+        <v>0.6582113355811359</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.250898455608876</v>
+        <v>3.250898455608819</v>
       </c>
       <c r="C9">
-        <v>0.7760028437674293</v>
+        <v>0.7760028437674862</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8886220922265551</v>
+        <v>0.8886220922265693</v>
       </c>
       <c r="F9">
-        <v>3.145477925732621</v>
+        <v>3.145477925732649</v>
       </c>
       <c r="G9">
-        <v>1.653165174462927</v>
+        <v>1.653165174462941</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.258181693216919</v>
+        <v>0.2581816932169332</v>
       </c>
       <c r="J9">
         <v>0.9028213043041546</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.928163262983105</v>
+        <v>3.928163262982991</v>
       </c>
       <c r="C10">
-        <v>0.9336354722318276</v>
+        <v>0.9336354722315718</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.072836548847135</v>
+        <v>1.072836548847107</v>
       </c>
       <c r="F10">
         <v>3.818695854522645</v>
       </c>
       <c r="G10">
-        <v>1.962596334680285</v>
+        <v>1.962596334680271</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3086604210547961</v>
+        <v>0.3086604210547748</v>
       </c>
       <c r="J10">
-        <v>1.090566745090712</v>
+        <v>1.090566745090698</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.245378072844687</v>
+        <v>4.245378072844801</v>
       </c>
       <c r="C11">
         <v>1.007481943736622</v>
@@ -763,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.159341415505921</v>
+        <v>1.159341415505907</v>
       </c>
       <c r="F11">
         <v>4.138020215367447</v>
       </c>
       <c r="G11">
-        <v>2.112853128808268</v>
+        <v>2.11285312880824</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.333492702588444</v>
+        <v>0.3334927025884653</v>
       </c>
       <c r="J11">
-        <v>1.178499056875381</v>
+        <v>1.178499056875324</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367085067696166</v>
+        <v>4.367085067696223</v>
       </c>
       <c r="C12">
-        <v>1.035822494078587</v>
+        <v>1.035822494078417</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.192573972743929</v>
+        <v>1.192573972743887</v>
       </c>
       <c r="F12">
         <v>4.261182476415058</v>
       </c>
       <c r="G12">
-        <v>2.171362092976736</v>
+        <v>2.171362092976764</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3432167852651844</v>
+        <v>0.3432167852652057</v>
       </c>
       <c r="J12">
-        <v>1.212237403400934</v>
+        <v>1.212237403400948</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>4.340797992540047</v>
       </c>
       <c r="C13">
-        <v>1.02970088036659</v>
+        <v>1.029700880367045</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.185394088097695</v>
+        <v>1.185394088097667</v>
       </c>
       <c r="F13">
         <v>4.234551231459307</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3411073445593615</v>
+        <v>0.3411073445593686</v>
       </c>
       <c r="J13">
         <v>1.204950301345576</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.255357502451602</v>
+        <v>4.255357502451545</v>
       </c>
       <c r="C14">
-        <v>1.009805555585245</v>
+        <v>1.009805555585046</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.162065411309783</v>
+        <v>1.162065411309754</v>
       </c>
       <c r="F14">
-        <v>4.148105658986026</v>
+        <v>4.148105658986054</v>
       </c>
       <c r="G14">
-        <v>2.117632886366849</v>
+        <v>2.117632886366863</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.203237943758268</v>
+        <v>4.20323794375804</v>
       </c>
       <c r="C15">
-        <v>0.9976703704957117</v>
+        <v>0.9976703704959391</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.147840594496941</v>
+        <v>1.147840594496913</v>
       </c>
       <c r="F15">
         <v>4.095458802949281</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.330151104676446</v>
+        <v>0.3301511046764745</v>
       </c>
       <c r="J15">
-        <v>1.16681758693106</v>
+        <v>1.166817586931046</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.9076384549453</v>
+        <v>3.907638454945243</v>
       </c>
       <c r="C16">
-        <v>0.9288581042370652</v>
+        <v>0.9288581042375199</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>1.067244713549528</v>
       </c>
       <c r="F16">
-        <v>3.798119922293324</v>
+        <v>3.798119922293296</v>
       </c>
       <c r="G16">
-        <v>1.952987794942104</v>
+        <v>1.952987794942075</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3070794163820452</v>
+        <v>0.3070794163820665</v>
       </c>
       <c r="J16">
-        <v>1.084877299666545</v>
+        <v>1.08487729966653</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.728815352608137</v>
+        <v>3.728815352608365</v>
       </c>
       <c r="C17">
         <v>0.88723734775445</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.018551363615657</v>
+        <v>1.018551363615686</v>
       </c>
       <c r="F17">
         <v>3.619300292623166</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2934385945953721</v>
+        <v>0.2934385945953579</v>
       </c>
       <c r="J17">
-        <v>1.035307611169188</v>
+        <v>1.035307611169202</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.626801154314819</v>
+        <v>3.626801154314933</v>
       </c>
       <c r="C18">
-        <v>0.8634947458455144</v>
+        <v>0.8634947458456281</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9907928984280261</v>
+        <v>0.9907928984280119</v>
       </c>
       <c r="F18">
         <v>3.517653917401788</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2857651174552132</v>
+        <v>0.2857651174552345</v>
       </c>
       <c r="J18">
-        <v>1.007028918804792</v>
+        <v>1.007028918804806</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.592397568783952</v>
+        <v>3.592397568784065</v>
       </c>
       <c r="C19">
-        <v>0.8554877470454869</v>
+        <v>0.8554877470453448</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9814346729421999</v>
+        <v>0.9814346729422141</v>
       </c>
       <c r="F19">
         <v>3.483435225117404</v>
       </c>
       <c r="G19">
-        <v>1.80719390013266</v>
+        <v>1.807193900132631</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0.2831951761688032</v>
       </c>
       <c r="J19">
-        <v>0.997492016314439</v>
+        <v>0.9974920163144247</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.74776258901403</v>
+        <v>3.747762589013917</v>
       </c>
       <c r="C20">
-        <v>0.8916471418898482</v>
+        <v>0.8916471418897629</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.023708540248307</v>
+        <v>1.02370854024835</v>
       </c>
       <c r="F20">
-        <v>3.638208700728711</v>
+        <v>3.63820870072874</v>
       </c>
       <c r="G20">
-        <v>1.878625633099631</v>
+        <v>1.878625633099617</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2948724972815597</v>
+        <v>0.2948724972815882</v>
       </c>
       <c r="J20">
-        <v>1.040559808939292</v>
+        <v>1.040559808939307</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28040804580246</v>
+        <v>4.280408045802574</v>
       </c>
       <c r="C21">
-        <v>1.015638468952403</v>
+        <v>1.015638468952375</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.16890395664673</v>
+        <v>1.168903956646787</v>
       </c>
       <c r="F21">
-        <v>4.173432830630219</v>
+        <v>4.17343283063019</v>
       </c>
       <c r="G21">
-        <v>2.129645106202787</v>
+        <v>2.129645106202773</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3362803998747381</v>
+        <v>0.3362803998747168</v>
       </c>
       <c r="J21">
-        <v>1.188209617685416</v>
+        <v>1.188209617685402</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.637919369285441</v>
+        <v>4.637919369285385</v>
       </c>
       <c r="C22">
-        <v>1.09890940614784</v>
+        <v>1.098909406148124</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.266617773257437</v>
+        <v>1.266617773257394</v>
       </c>
       <c r="F22">
-        <v>4.536507290266428</v>
+        <v>4.536507290266456</v>
       </c>
       <c r="G22">
-        <v>2.303229076941633</v>
+        <v>2.303229076941605</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.365242903942999</v>
+        <v>0.3652429039430203</v>
       </c>
       <c r="J22">
-        <v>1.287319051546135</v>
+        <v>1.28731905154612</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446146927857114</v>
+        <v>4.446146927856944</v>
       </c>
       <c r="C23">
-        <v>1.054235627394775</v>
+        <v>1.054235627394547</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.214175529681668</v>
+        <v>1.214175529681683</v>
       </c>
       <c r="F23">
         <v>4.341377884687518</v>
       </c>
       <c r="G23">
-        <v>2.209620512142237</v>
+        <v>2.209620512142223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.739194091592822</v>
+        <v>3.739194091592879</v>
       </c>
       <c r="C24">
-        <v>0.8896529005157277</v>
+        <v>0.8896529005158698</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.021376251927236</v>
+        <v>1.021376251927208</v>
       </c>
       <c r="F24">
-        <v>3.629656624607378</v>
+        <v>3.629656624607321</v>
       </c>
       <c r="G24">
-        <v>1.874664572987896</v>
+        <v>1.874664572987868</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2942237078508825</v>
+        <v>0.2942237078509038</v>
       </c>
       <c r="J24">
         <v>1.038184612027848</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007984588553882</v>
+        <v>3.007984588553711</v>
       </c>
       <c r="C25">
-        <v>0.7194484166225834</v>
+        <v>0.7194484166225266</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8226821172721372</v>
+        <v>0.8226821172720662</v>
       </c>
       <c r="F25">
-        <v>2.907038857578726</v>
+        <v>2.907038857578755</v>
       </c>
       <c r="G25">
         <v>1.546204407935065</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2409504861340395</v>
+        <v>0.2409504861340324</v>
       </c>
       <c r="J25">
-        <v>0.8354720397852446</v>
+        <v>0.8354720397852162</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.488218330882546</v>
+        <v>2.488107375697837</v>
       </c>
       <c r="C2">
-        <v>0.5983375201788022</v>
+        <v>0.5982831949766307</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6817592231496832</v>
+        <v>0.6827933463746234</v>
       </c>
       <c r="F2">
-        <v>2.402726994665244</v>
+        <v>2.400476089861513</v>
       </c>
       <c r="G2">
-        <v>1.325179207408198</v>
+        <v>0.4233802625469991</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9006706485586591</v>
       </c>
       <c r="I2">
-        <v>0.2057289416425654</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6913221206064719</v>
+        <v>0.2049893282553761</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.691284223968907</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.144177458754825</v>
+        <v>2.144120544061309</v>
       </c>
       <c r="C3">
-        <v>0.5180413498513303</v>
+        <v>0.5180115148103823</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5885597287144648</v>
+        <v>0.5894609143680754</v>
       </c>
       <c r="F3">
-        <v>2.073743757790112</v>
+        <v>2.071786353850015</v>
       </c>
       <c r="G3">
-        <v>1.185340665925793</v>
+        <v>0.3738792608584305</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8110436151636122</v>
       </c>
       <c r="I3">
-        <v>0.1837379611636614</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5958581221727073</v>
+        <v>0.1830867867426633</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5958382191804859</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.936027598787319</v>
+        <v>1.935997750340277</v>
       </c>
       <c r="C4">
-        <v>0.4693826968157566</v>
+        <v>0.4693662249221688</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5321802330169731</v>
+        <v>0.5329999333830031</v>
       </c>
       <c r="F4">
-        <v>1.876782227583931</v>
+        <v>1.875000502198077</v>
       </c>
       <c r="G4">
-        <v>1.103531942292392</v>
+        <v>0.3448029568673263</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7587376346353665</v>
       </c>
       <c r="I4">
-        <v>0.1709904603612422</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5380731638488925</v>
+        <v>0.1703922626396412</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5380625318676309</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851856150332338</v>
+        <v>1.851836004042042</v>
       </c>
       <c r="C5">
-        <v>0.4496847750450854</v>
+        <v>0.4496733912837385</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.509379338412046</v>
+        <v>0.5101658511713083</v>
       </c>
       <c r="F5">
-        <v>1.797615470875542</v>
+        <v>1.79590441209244</v>
       </c>
       <c r="G5">
-        <v>1.07109915326393</v>
+        <v>0.3332466840741404</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7380328440170842</v>
       </c>
       <c r="I5">
-        <v>0.1659629268126075</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5146986932462454</v>
+        <v>0.1653860428871177</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5146914546769565</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.837915417923739</v>
+        <v>1.837896808138879</v>
       </c>
       <c r="C6">
-        <v>0.4464210087259914</v>
+        <v>0.4464104499640484</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5056027399756076</v>
+        <v>0.506383742576574</v>
       </c>
       <c r="F6">
-        <v>1.784531464649874</v>
+        <v>1.782832089995239</v>
       </c>
       <c r="G6">
-        <v>1.065765229436352</v>
+        <v>0.3313443780084668</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7346296285770109</v>
       </c>
       <c r="I6">
-        <v>0.1651375856408634</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5108268806655687</v>
+        <v>0.1645642258505973</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5108201840167652</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.934889954273302</v>
+        <v>1.93486024178938</v>
       </c>
       <c r="C7">
-        <v>0.4691165524895666</v>
+        <v>0.469100150585291</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5318720747328172</v>
+        <v>0.5326913274670915</v>
       </c>
       <c r="F7">
-        <v>1.875710329422063</v>
+        <v>1.873929560546074</v>
       </c>
       <c r="G7">
-        <v>1.103091021577555</v>
+        <v>0.3446459689953514</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7584560255337323</v>
       </c>
       <c r="I7">
-        <v>0.1709220087149603</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5377572699201707</v>
+        <v>0.1703240994782647</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5377466851841533</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368871075576919</v>
+        <v>2.368780157780407</v>
       </c>
       <c r="C8">
-        <v>0.5704981781822767</v>
+        <v>0.5704526853919845</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6494242059360715</v>
+        <v>0.6504124534906879</v>
       </c>
       <c r="F8">
-        <v>2.288141236128837</v>
+        <v>2.285992610193389</v>
       </c>
       <c r="G8">
-        <v>1.276049570382767</v>
+        <v>0.4060143759583781</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.8691541829454366</v>
       </c>
       <c r="I8">
-        <v>0.197975330377556</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6582113355811359</v>
+        <v>0.1972665233529192</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6581800520455516</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.250898455608819</v>
+        <v>3.250627871195263</v>
       </c>
       <c r="C9">
-        <v>0.7760028437674862</v>
+        <v>0.7758836667713922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8886220922265693</v>
+        <v>0.889943570126519</v>
       </c>
       <c r="F9">
-        <v>3.145477925732649</v>
+        <v>3.142560463415322</v>
       </c>
       <c r="G9">
-        <v>1.653165174462941</v>
+        <v>0.5387757224590786</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.111659841542419</v>
       </c>
       <c r="I9">
-        <v>0.2581816932169332</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9028213043041546</v>
+        <v>0.2572418183235428</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9027320330991415</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.928163262982991</v>
+        <v>3.927705570665978</v>
       </c>
       <c r="C10">
-        <v>0.9336354722315718</v>
+        <v>0.9334463732900247</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.072836548847107</v>
+        <v>1.07440487454241</v>
       </c>
       <c r="F10">
-        <v>3.818695854522645</v>
+        <v>3.815165064360883</v>
       </c>
       <c r="G10">
-        <v>1.962596334680271</v>
+        <v>0.6470187084399441</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.31139397571944</v>
       </c>
       <c r="I10">
-        <v>0.3086604210547748</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.090566745090698</v>
+        <v>0.3075373397195307</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.09041871306809</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.245378072844801</v>
+        <v>4.244817894841333</v>
       </c>
       <c r="C11">
-        <v>1.007481943736622</v>
+        <v>1.007255986015537</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.159341415505907</v>
+        <v>1.161022608912532</v>
       </c>
       <c r="F11">
-        <v>4.138020215367447</v>
+        <v>4.134194225623673</v>
       </c>
       <c r="G11">
-        <v>2.11285312880824</v>
+        <v>0.6994202421397659</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.408557196897434</v>
       </c>
       <c r="I11">
-        <v>0.3334927025884653</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.178499056875324</v>
+        <v>0.3322818928120839</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.178319187002757</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367085067696223</v>
+        <v>4.366483006685485</v>
       </c>
       <c r="C12">
-        <v>1.035822494078417</v>
+        <v>1.035581679720963</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.192573972743887</v>
+        <v>1.194297990759765</v>
       </c>
       <c r="F12">
-        <v>4.261182476415058</v>
+        <v>4.257241767453422</v>
       </c>
       <c r="G12">
-        <v>2.171362092976764</v>
+        <v>0.7198011072860879</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.44641783805902</v>
       </c>
       <c r="I12">
-        <v>0.3432167852652057</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.212237403400948</v>
+        <v>0.3419719696067816</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.212044572431694</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.340797992540047</v>
+        <v>4.340205099060825</v>
       </c>
       <c r="C13">
-        <v>1.029700880367045</v>
+        <v>1.029463308799848</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.185394088097667</v>
+        <v>1.187108879415533</v>
       </c>
       <c r="F13">
-        <v>4.234551231459307</v>
+        <v>4.230635370928297</v>
       </c>
       <c r="G13">
-        <v>2.158685209978856</v>
+        <v>0.7153863488355512</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.438213573397363</v>
       </c>
       <c r="I13">
-        <v>0.3411073445593686</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.204950301345576</v>
+        <v>0.3398698904053887</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.204760305144134</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.255357502451545</v>
+        <v>4.254793944072219</v>
       </c>
       <c r="C14">
-        <v>1.009805555585046</v>
+        <v>1.009578394742789</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.162065411309754</v>
+        <v>1.163750126265583</v>
       </c>
       <c r="F14">
-        <v>4.148105658986054</v>
+        <v>4.144270293972852</v>
       </c>
       <c r="G14">
-        <v>2.117632886366863</v>
+        <v>0.7010856915268562</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.411649615735911</v>
       </c>
       <c r="I14">
-        <v>0.3342859528191866</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.181265420388897</v>
+        <v>0.3330723620934748</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.181084503443572</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.20323794375804</v>
+        <v>4.202691934389065</v>
       </c>
       <c r="C15">
-        <v>0.9976703704959391</v>
+        <v>0.9974494636727513</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.147840594496913</v>
+        <v>1.149506897633557</v>
       </c>
       <c r="F15">
-        <v>4.095458802949281</v>
+        <v>4.091672341445786</v>
       </c>
       <c r="G15">
-        <v>2.092704756901924</v>
+        <v>0.6923988215271777</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.395522597393409</v>
       </c>
       <c r="I15">
-        <v>0.3301511046764745</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.166817586931046</v>
+        <v>0.3289520236171342</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.16664210776419</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.907638454945243</v>
+        <v>3.907187064330628</v>
       </c>
       <c r="C16">
-        <v>0.9288581042375199</v>
+        <v>0.9286712985355337</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.067244713549528</v>
+        <v>1.068805674972239</v>
       </c>
       <c r="F16">
-        <v>3.798119922293296</v>
+        <v>3.794608049549737</v>
       </c>
       <c r="G16">
-        <v>1.952987794942075</v>
+        <v>0.6436645513092287</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.305184122793449</v>
       </c>
       <c r="I16">
-        <v>0.3070794163820665</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.08487729966653</v>
+        <v>0.3059619675742411</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.084731231811347</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.728815352608365</v>
+        <v>3.728417186434456</v>
       </c>
       <c r="C17">
-        <v>0.88723734775445</v>
+        <v>0.8870700566422443</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.018551363615686</v>
+        <v>1.02004785234773</v>
       </c>
       <c r="F17">
-        <v>3.619300292623166</v>
+        <v>3.615952333524632</v>
       </c>
       <c r="G17">
-        <v>1.869870017497064</v>
+        <v>0.6146323259085307</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.251485288536273</v>
       </c>
       <c r="I17">
-        <v>0.2934385945953579</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.035307611169202</v>
+        <v>0.2923700009706636</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.035178167976923</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.626801154314933</v>
+        <v>3.626432007466008</v>
       </c>
       <c r="C18">
-        <v>0.8634947458456281</v>
+        <v>0.8633382158441236</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9907928984280119</v>
+        <v>0.992252358677959</v>
       </c>
       <c r="F18">
-        <v>3.517653917401788</v>
+        <v>3.514398755960883</v>
       </c>
       <c r="G18">
-        <v>1.822939857251058</v>
+        <v>0.598225637529751</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.221181436933222</v>
       </c>
       <c r="I18">
-        <v>0.2857651174552345</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.007028918804806</v>
+        <v>0.2847242220202162</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.006908569055327</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.592397568784065</v>
+        <v>3.592037989213225</v>
       </c>
       <c r="C19">
-        <v>0.8554877470453448</v>
+        <v>0.8553347857015012</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9814346729422141</v>
+        <v>0.9828816051631861</v>
       </c>
       <c r="F19">
-        <v>3.483435225117404</v>
+        <v>3.480211245311921</v>
       </c>
       <c r="G19">
-        <v>1.807193900132631</v>
+        <v>0.5927184272767221</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.211016594645699</v>
       </c>
       <c r="I19">
-        <v>0.2831951761688032</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9974920163144247</v>
+        <v>0.2821635940079474</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9973746695752652</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.747762589013917</v>
+        <v>3.747358925759556</v>
       </c>
       <c r="C20">
-        <v>0.8916471418897629</v>
+        <v>0.8914778224862232</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.02370854024835</v>
+        <v>1.02521188652895</v>
       </c>
       <c r="F20">
-        <v>3.63820870072874</v>
+        <v>3.634843449996737</v>
       </c>
       <c r="G20">
-        <v>1.878625633099617</v>
+        <v>0.6176920881669616</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.257140272538777</v>
       </c>
       <c r="I20">
-        <v>0.2948724972815882</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.040559808939307</v>
+        <v>0.2937987455622562</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.040428645642734</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.280408045802574</v>
+        <v>4.279835959649063</v>
       </c>
       <c r="C21">
-        <v>1.015638468952375</v>
+        <v>1.015408276193142</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.168903956646787</v>
+        <v>1.170597503516305</v>
       </c>
       <c r="F21">
-        <v>4.17343283063019</v>
+        <v>4.169573907255028</v>
       </c>
       <c r="G21">
-        <v>2.129645106202773</v>
+        <v>0.7052708239539101</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.419421723976882</v>
       </c>
       <c r="I21">
-        <v>0.3362803998747168</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.188209617685402</v>
+        <v>0.3350598225814636</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.188026060044663</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.637919369285385</v>
+        <v>4.637218924888941</v>
       </c>
       <c r="C22">
-        <v>1.098909406148124</v>
+        <v>1.098634079141675</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.266617773257394</v>
+        <v>1.268436109714244</v>
       </c>
       <c r="F22">
-        <v>4.536507290266456</v>
+        <v>4.532308236356499</v>
       </c>
       <c r="G22">
-        <v>2.303229076941605</v>
+        <v>0.7656906387764337</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.53179614583938</v>
       </c>
       <c r="I22">
-        <v>0.3652429039430203</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.28731905154612</v>
+        <v>0.3639216945411974</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.287095868862522</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446146927856944</v>
+        <v>4.445516889370651</v>
       </c>
       <c r="C23">
-        <v>1.054235627394547</v>
+        <v>1.053984946490147</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.214175529681683</v>
+        <v>1.215927221806055</v>
       </c>
       <c r="F23">
-        <v>4.341377884687518</v>
+        <v>4.337362202750938</v>
       </c>
       <c r="G23">
-        <v>2.209620512142223</v>
+        <v>0.7331211936359807</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.471181839710098</v>
       </c>
       <c r="I23">
-        <v>0.349591571253498</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.234154606953709</v>
+        <v>0.3483245587878798</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.233953132096872</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.739194091592879</v>
+        <v>3.738792918448894</v>
       </c>
       <c r="C24">
-        <v>0.8896529005158698</v>
+        <v>0.8894844995165556</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.021376251927208</v>
+        <v>1.022876497793092</v>
       </c>
       <c r="F24">
-        <v>3.629656624607321</v>
+        <v>3.626299195859275</v>
       </c>
       <c r="G24">
-        <v>1.874664572987868</v>
+        <v>0.6163078901264072</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.254581895861037</v>
       </c>
       <c r="I24">
-        <v>0.2942237078509038</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.038184612027848</v>
+        <v>0.2931522893074288</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.038054227824219</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007984588553711</v>
+        <v>3.00777072292135</v>
       </c>
       <c r="C25">
-        <v>0.7194484166225266</v>
+        <v>0.7193514753441548</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8226821172720662</v>
+        <v>0.823913150131304</v>
       </c>
       <c r="F25">
-        <v>2.907038857578755</v>
+        <v>2.904336264415605</v>
       </c>
       <c r="G25">
-        <v>1.546204407935065</v>
+        <v>0.5012325928000791</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.042756253737949</v>
       </c>
       <c r="I25">
-        <v>0.2409504861340324</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8354720397852162</v>
+        <v>0.240075054897531</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8354008304725795</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.488107375697837</v>
+        <v>2.754683392283596</v>
       </c>
       <c r="C2">
-        <v>0.5982831949766307</v>
+        <v>0.7694605763142022</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6827933463746234</v>
+        <v>0.1155732899734652</v>
       </c>
       <c r="F2">
-        <v>2.400476089861513</v>
+        <v>7.022542194090988</v>
       </c>
       <c r="G2">
-        <v>0.4233802625469991</v>
+        <v>0.0008392468747679152</v>
       </c>
       <c r="H2">
-        <v>0.9006706485586591</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2049893282553761</v>
+        <v>0.7734512235234661</v>
       </c>
       <c r="K2">
-        <v>0.691284223968907</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01197674905396973</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.2482688000830287</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.144120544061309</v>
+        <v>2.411082591309366</v>
       </c>
       <c r="C3">
-        <v>0.5180115148103823</v>
+        <v>0.6581568805400195</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5894609143680754</v>
+        <v>0.09962357503730601</v>
       </c>
       <c r="F3">
-        <v>2.071786353850015</v>
+        <v>6.307709603939429</v>
       </c>
       <c r="G3">
-        <v>0.3738792608584305</v>
+        <v>0.0008516572677205402</v>
       </c>
       <c r="H3">
-        <v>0.8110436151636122</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1830867867426633</v>
+        <v>0.6975695523213687</v>
       </c>
       <c r="K3">
-        <v>0.5958382191804859</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01163420915596447</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2200652307250124</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.935997750340277</v>
+        <v>2.207808594772928</v>
       </c>
       <c r="C4">
-        <v>0.4693662249221688</v>
+        <v>0.591614262643418</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5329999333830031</v>
+        <v>0.09003788198305429</v>
       </c>
       <c r="F4">
-        <v>1.875000502198077</v>
+        <v>5.879815311884073</v>
       </c>
       <c r="G4">
-        <v>0.3448029568673263</v>
+        <v>0.0008594290276593848</v>
       </c>
       <c r="H4">
-        <v>0.7587376346353665</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1703922626396412</v>
+        <v>0.6520090043357811</v>
       </c>
       <c r="K4">
-        <v>0.5380625318676309</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01162619661942443</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2036785042269891</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851836004042042</v>
+        <v>2.12667365454314</v>
       </c>
       <c r="C5">
-        <v>0.4496733912837385</v>
+        <v>0.5648789689342095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5101658511713083</v>
+        <v>0.08617481859530685</v>
       </c>
       <c r="F5">
-        <v>1.79590441209244</v>
+        <v>5.707814433760007</v>
       </c>
       <c r="G5">
-        <v>0.3332466840741404</v>
+        <v>0.0008626380942978049</v>
       </c>
       <c r="H5">
-        <v>0.7380328440170842</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1653860428871177</v>
+        <v>0.6336568091256396</v>
       </c>
       <c r="K5">
-        <v>0.5146914546769565</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.01166942222818257</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.1972102482810065</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.837896808138879</v>
+        <v>2.113297618327238</v>
       </c>
       <c r="C6">
-        <v>0.4464104499640484</v>
+        <v>0.5604607080152277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.506383742576574</v>
+        <v>0.08553572358056272</v>
       </c>
       <c r="F6">
-        <v>1.782832089995239</v>
+        <v>5.679386023909245</v>
       </c>
       <c r="G6">
-        <v>0.3313443780084668</v>
+        <v>0.0008631736000940973</v>
       </c>
       <c r="H6">
-        <v>0.7346296285770109</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1645642258505973</v>
+        <v>0.6306211411613987</v>
       </c>
       <c r="K6">
-        <v>0.5108201840167652</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0116792889959374</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.196148188070417</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.93486024178938</v>
+        <v>2.206707785117089</v>
       </c>
       <c r="C7">
-        <v>0.469100150585291</v>
+        <v>0.5912522447706579</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5326913274670915</v>
+        <v>0.08998561968418883</v>
       </c>
       <c r="F7">
-        <v>1.873929560546074</v>
+        <v>5.877486552282136</v>
       </c>
       <c r="G7">
-        <v>0.3446459689953514</v>
+        <v>0.0008594721313557319</v>
       </c>
       <c r="H7">
-        <v>0.7584560255337323</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1703240994782647</v>
+        <v>0.6517606895878458</v>
       </c>
       <c r="K7">
-        <v>0.5377466851841533</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.01162659676493583</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2035904532432404</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.368780157780407</v>
+        <v>2.634461828471785</v>
       </c>
       <c r="C8">
-        <v>0.5704526853919845</v>
+        <v>0.7306645053088516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6504124534906879</v>
+        <v>0.1100250245926873</v>
       </c>
       <c r="F8">
-        <v>2.285992610193389</v>
+        <v>6.773526385770737</v>
       </c>
       <c r="G8">
-        <v>0.4060143759583781</v>
+        <v>0.0008434969448126785</v>
       </c>
       <c r="H8">
-        <v>0.8691541829454366</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1972665233529192</v>
+        <v>0.7470444331085986</v>
       </c>
       <c r="K8">
-        <v>0.6581800520455516</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.01181385096057141</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.2383354337782571</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.250627871195263</v>
+        <v>3.546642803116868</v>
       </c>
       <c r="C9">
-        <v>0.7758836667713922</v>
+        <v>1.022026494713657</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.889943570126519</v>
+        <v>0.1514360614748256</v>
       </c>
       <c r="F9">
-        <v>3.142560463415322</v>
+        <v>8.6388059585191</v>
       </c>
       <c r="G9">
-        <v>0.5387757224590786</v>
+        <v>0.0008131737891490029</v>
       </c>
       <c r="H9">
-        <v>1.111659841542419</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2572418183235428</v>
+        <v>0.9444156929480414</v>
       </c>
       <c r="K9">
-        <v>0.9027320330991415</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01401486248875017</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.3151351834726057</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.927705570665978</v>
+        <v>4.281857893700078</v>
       </c>
       <c r="C10">
-        <v>0.9334463732900247</v>
+        <v>1.253196501246919</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.07440487454241</v>
+        <v>0.1839190797543964</v>
       </c>
       <c r="F10">
-        <v>3.815165064360883</v>
+        <v>10.10913565625026</v>
       </c>
       <c r="G10">
-        <v>0.6470187084399441</v>
+        <v>0.0007911800107577475</v>
       </c>
       <c r="H10">
-        <v>1.31139397571944</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3075373397195307</v>
+        <v>1.099669282160988</v>
       </c>
       <c r="K10">
-        <v>1.09041871306809</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01712820589284192</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.378972616655247</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.244817894841333</v>
+        <v>4.636147919285406</v>
       </c>
       <c r="C11">
-        <v>1.007255986015537</v>
+        <v>1.363807378436206</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.161022608912532</v>
+        <v>0.1993580393163867</v>
       </c>
       <c r="F11">
-        <v>4.134194225623673</v>
+        <v>10.80912117819099</v>
       </c>
       <c r="G11">
-        <v>0.6994202421397659</v>
+        <v>0.0007811454691786419</v>
       </c>
       <c r="H11">
-        <v>1.408557196897434</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3322818928120839</v>
+        <v>1.173584062414847</v>
       </c>
       <c r="K11">
-        <v>1.178319187002757</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01897590334769461</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.4102238650111047</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.366483006685485</v>
+        <v>4.773755792691759</v>
       </c>
       <c r="C12">
-        <v>1.035581679720963</v>
+        <v>1.406657941098786</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.194297990759765</v>
+        <v>0.2053219121641234</v>
       </c>
       <c r="F12">
-        <v>4.257241767453422</v>
+        <v>11.0796325449532</v>
       </c>
       <c r="G12">
-        <v>0.7198011072860879</v>
+        <v>0.0007773320230109409</v>
       </c>
       <c r="H12">
-        <v>1.44641783805902</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3419719696067816</v>
+        <v>1.202156282243635</v>
       </c>
       <c r="K12">
-        <v>1.212044572431694</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01974877660239827</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.4224387809152219</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.340205099060825</v>
+        <v>4.743955440150785</v>
       </c>
       <c r="C13">
-        <v>1.029463308799848</v>
+        <v>1.397383112834063</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.187108879415533</v>
+        <v>0.2040318575312838</v>
       </c>
       <c r="F13">
-        <v>4.230635370928297</v>
+        <v>11.02111360314035</v>
       </c>
       <c r="G13">
-        <v>0.7153863488355512</v>
+        <v>0.0007781540899937493</v>
       </c>
       <c r="H13">
-        <v>1.438213573397363</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3398698904053887</v>
+        <v>1.195974870502823</v>
       </c>
       <c r="K13">
-        <v>1.204760305144134</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.01957886674754761</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.4197900048400456</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254793944072219</v>
+        <v>4.647396103417861</v>
       </c>
       <c r="C14">
-        <v>1.009578394742789</v>
+        <v>1.367312215963636</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.163750126265583</v>
+        <v>0.1998461927897495</v>
       </c>
       <c r="F14">
-        <v>4.144270293972852</v>
+        <v>10.83126103112386</v>
       </c>
       <c r="G14">
-        <v>0.7010856915268562</v>
+        <v>0.0007808320667907037</v>
       </c>
       <c r="H14">
-        <v>1.411649615735911</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3330723620934748</v>
+        <v>1.175922342506851</v>
       </c>
       <c r="K14">
-        <v>1.181084503443572</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.01903794911386569</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.4112207563540977</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.202691934389065</v>
+        <v>4.5887191703398</v>
       </c>
       <c r="C15">
-        <v>0.9974494636727513</v>
+        <v>1.349024556142865</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.149506897633557</v>
+        <v>0.1972983876550458</v>
       </c>
       <c r="F15">
-        <v>4.091672341445786</v>
+        <v>10.71571145887344</v>
       </c>
       <c r="G15">
-        <v>0.6923988215271777</v>
+        <v>0.0007824703269454366</v>
       </c>
       <c r="H15">
-        <v>1.395522597393409</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3289520236171342</v>
+        <v>1.163719033554855</v>
       </c>
       <c r="K15">
-        <v>1.16664210776419</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.01871652312311411</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.4060235137373454</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.907187064330628</v>
+        <v>4.259151431165208</v>
       </c>
       <c r="C16">
-        <v>0.9286712985355337</v>
+        <v>1.246092130505247</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.068805674972239</v>
+        <v>0.182925236397395</v>
       </c>
       <c r="F16">
-        <v>3.794608049549737</v>
+        <v>10.0640947284802</v>
       </c>
       <c r="G16">
-        <v>0.6436645513092287</v>
+        <v>0.0007918344407250346</v>
       </c>
       <c r="H16">
-        <v>1.305184122793449</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3059619675742411</v>
+        <v>1.094913836195474</v>
       </c>
       <c r="K16">
-        <v>1.084731231811347</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.01701703875606597</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.3769798501051156</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.728417186434456</v>
+        <v>4.062439263545912</v>
       </c>
       <c r="C17">
-        <v>0.8870700566422443</v>
+        <v>1.184459968691158</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.02004785234773</v>
+        <v>0.1742918916639624</v>
       </c>
       <c r="F17">
-        <v>3.615952333524632</v>
+        <v>9.672952538141743</v>
       </c>
       <c r="G17">
-        <v>0.6146323259085307</v>
+        <v>0.0007975653769489355</v>
       </c>
       <c r="H17">
-        <v>1.251485288536273</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2923700009706636</v>
+        <v>1.053617926122854</v>
       </c>
       <c r="K17">
-        <v>1.035178167976923</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.01609221392823912</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.3597696737470883</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.626432007466008</v>
+        <v>3.951121093806933</v>
       </c>
       <c r="C18">
-        <v>0.8633382158441236</v>
+        <v>1.149511074816871</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.992252358677959</v>
+        <v>0.1693869971909976</v>
       </c>
       <c r="F18">
-        <v>3.514398755960883</v>
+        <v>9.450840096316398</v>
       </c>
       <c r="G18">
-        <v>0.598225637529751</v>
+        <v>0.0008008595404451383</v>
       </c>
       <c r="H18">
-        <v>1.221181436933222</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2847242220202162</v>
+        <v>1.030167563564078</v>
       </c>
       <c r="K18">
-        <v>1.006908569055327</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01560010258474165</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.350074554598983</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.592037989213225</v>
+        <v>3.913727993015129</v>
       </c>
       <c r="C19">
-        <v>0.8553347857015012</v>
+        <v>1.137758975394092</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9828816051631861</v>
+        <v>0.1677361143383251</v>
       </c>
       <c r="F19">
-        <v>3.480211245311921</v>
+        <v>9.376101692368337</v>
       </c>
       <c r="G19">
-        <v>0.5927184272767221</v>
+        <v>0.0008019747797080519</v>
       </c>
       <c r="H19">
-        <v>1.211016594645699</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2821635940079474</v>
+        <v>1.022276534782293</v>
       </c>
       <c r="K19">
-        <v>0.9973746695752652</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01544001739974377</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.3468252308870845</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.747358925759556</v>
+        <v>4.083186756559599</v>
       </c>
       <c r="C20">
-        <v>0.8914778224862232</v>
+        <v>1.190967844624652</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.02521188652895</v>
+        <v>0.1752044884838924</v>
       </c>
       <c r="F20">
-        <v>3.634843449996737</v>
+        <v>9.71428764617022</v>
       </c>
       <c r="G20">
-        <v>0.6176920881669616</v>
+        <v>0.0007969555902871962</v>
       </c>
       <c r="H20">
-        <v>1.257140272538777</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2937987455622562</v>
+        <v>1.057981969537906</v>
       </c>
       <c r="K20">
-        <v>1.040428645642734</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.01618646781015443</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.3615802276378588</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.279835959649063</v>
+        <v>4.675659059904604</v>
       </c>
       <c r="C21">
-        <v>1.015408276193142</v>
+        <v>1.376116957222109</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.170597503516305</v>
+        <v>0.2010722359532977</v>
       </c>
       <c r="F21">
-        <v>4.169573907255028</v>
+        <v>10.88686899102481</v>
       </c>
       <c r="G21">
-        <v>0.7052708239539101</v>
+        <v>0.0007800459325889329</v>
       </c>
       <c r="H21">
-        <v>1.419421723976882</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3350598225814636</v>
+        <v>1.181795473587101</v>
       </c>
       <c r="K21">
-        <v>1.188026060044663</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.01919474297441681</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.4137268533952962</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.637218924888941</v>
+        <v>5.083330059220089</v>
       </c>
       <c r="C22">
-        <v>1.098634079141675</v>
+        <v>1.502858623425141</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.268436109714244</v>
+        <v>0.218676874465757</v>
       </c>
       <c r="F22">
-        <v>4.532308236356499</v>
+        <v>11.68553468524698</v>
       </c>
       <c r="G22">
-        <v>0.7656906387764337</v>
+        <v>0.0007689095293556809</v>
       </c>
       <c r="H22">
-        <v>1.53179614583938</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3639216945411974</v>
+        <v>1.266176347448464</v>
       </c>
       <c r="K22">
-        <v>1.287095868862522</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.02159440331300999</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.4500662927356203</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.445516889370651</v>
+        <v>4.86364683615983</v>
       </c>
       <c r="C23">
-        <v>1.053984946490147</v>
+        <v>1.434619150950823</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.215927221806055</v>
+        <v>0.2092084322196897</v>
       </c>
       <c r="F23">
-        <v>4.337362202750938</v>
+        <v>11.25594338482995</v>
       </c>
       <c r="G23">
-        <v>0.7331211936359807</v>
+        <v>0.0007748646161886432</v>
       </c>
       <c r="H23">
-        <v>1.471181839710098</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3483245587878798</v>
+        <v>1.22078187759783</v>
       </c>
       <c r="K23">
-        <v>1.233953132096872</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0202696662090851</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.4304402357842747</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.738792918448894</v>
+        <v>4.073801331654977</v>
       </c>
       <c r="C24">
-        <v>0.8894844995165556</v>
+        <v>1.188024138706169</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.022876497793092</v>
+        <v>0.1747917227708626</v>
       </c>
       <c r="F24">
-        <v>3.626299195859275</v>
+        <v>9.695591516187307</v>
       </c>
       <c r="G24">
-        <v>0.6163078901264072</v>
+        <v>0.0007972312758881757</v>
       </c>
       <c r="H24">
-        <v>1.254581895861037</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2931522893074288</v>
+        <v>1.056008086433195</v>
       </c>
       <c r="K24">
-        <v>1.038054227824219</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.01614373314972894</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.3607610601971487</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.00777072292135</v>
+        <v>3.290125057226987</v>
       </c>
       <c r="C25">
-        <v>0.7193514753441548</v>
+        <v>0.9407082039561487</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.823913150131304</v>
+        <v>0.1399349736376649</v>
       </c>
       <c r="F25">
-        <v>2.904336264415605</v>
+        <v>8.11943177246917</v>
       </c>
       <c r="G25">
-        <v>0.5012325928000791</v>
+        <v>0.0008213002225189547</v>
       </c>
       <c r="H25">
-        <v>1.042756253737949</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.240075054897531</v>
+        <v>0.8895358779002862</v>
       </c>
       <c r="K25">
-        <v>0.8354008304725795</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.01318786840660024</v>
       </c>
       <c r="M25">
+        <v>0.2932328338993742</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.754683392283596</v>
+        <v>0.7412165067532612</v>
       </c>
       <c r="C2">
-        <v>0.7694605763142022</v>
+        <v>0.09494647986638682</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1155732899734652</v>
+        <v>0.3570862732715625</v>
       </c>
       <c r="F2">
-        <v>7.022542194090988</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008392468747679152</v>
+        <v>0.1957687018939964</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2058604545815115</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7734512235234661</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7393065371897336</v>
       </c>
       <c r="L2">
-        <v>0.01197674905396973</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2482688000830287</v>
+        <v>0.5624804922893603</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6597652202158919</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7951440370029985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.411082591309366</v>
+        <v>0.6459433782963231</v>
       </c>
       <c r="C3">
-        <v>0.6581568805400195</v>
+        <v>0.08858261979158044</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09962357503730601</v>
+        <v>0.311126282937721</v>
       </c>
       <c r="F3">
-        <v>6.307709603939429</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008516572677205402</v>
+        <v>0.1924870191177561</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2093958588030205</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6975695523213687</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6487089201571052</v>
       </c>
       <c r="L3">
-        <v>0.01163420915596447</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2200652307250124</v>
+        <v>0.4873372345376907</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6887006901153434</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7952851610155705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.207808594772928</v>
+        <v>0.5874358874562233</v>
       </c>
       <c r="C4">
-        <v>0.591614262643418</v>
+        <v>0.0846728414478477</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09003788198305429</v>
+        <v>0.2833797684323045</v>
       </c>
       <c r="F4">
-        <v>5.879815311884073</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008594290276593848</v>
+        <v>0.1910450089133562</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2119388884013063</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6520090043357811</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5930055221310653</v>
       </c>
       <c r="L4">
-        <v>0.01162619661942443</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2036785042269891</v>
+        <v>0.4415018364319678</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7073529566585108</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7973585791887388</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.12667365454314</v>
+        <v>0.5635852645514774</v>
       </c>
       <c r="C5">
-        <v>0.5648789689342095</v>
+        <v>0.08307872734200572</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08617481859530685</v>
+        <v>0.2721796295238832</v>
       </c>
       <c r="F5">
-        <v>5.707814433760007</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008626380942978049</v>
+        <v>0.1905944189275743</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2130657741067381</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6336568091256396</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5702816638549422</v>
       </c>
       <c r="L5">
-        <v>0.01166942222818257</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1972102482810065</v>
+        <v>0.4228882664641347</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.715171354282564</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7986818300951768</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.113297618327238</v>
+        <v>0.5596242144094106</v>
       </c>
       <c r="C6">
-        <v>0.5604607080152277</v>
+        <v>0.08281396755248949</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08553572358056272</v>
+        <v>0.2703259608908439</v>
       </c>
       <c r="F6">
-        <v>5.679386023909245</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008631736000940973</v>
+        <v>0.1905276758753658</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2132582773417937</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6306211411613987</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5665067743755969</v>
       </c>
       <c r="L6">
-        <v>0.0116792889959374</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.196148188070417</v>
+        <v>0.4198010838287445</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7164825764369063</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7989298396095137</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.206707785117089</v>
+        <v>0.5871142710674633</v>
       </c>
       <c r="C7">
-        <v>0.5912522447706579</v>
+        <v>0.0846513464268952</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08998561968418883</v>
+        <v>0.2832283026841651</v>
       </c>
       <c r="F7">
-        <v>5.877486552282136</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008594721313557319</v>
+        <v>0.1910383862974143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2119537231267046</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6517606895878458</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.592699165072716</v>
       </c>
       <c r="L7">
-        <v>0.01162659676493583</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2035904532432404</v>
+        <v>0.4412505599192116</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7074575246750783</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7973745157606231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.634461828471785</v>
+        <v>0.708364552819063</v>
       </c>
       <c r="C8">
-        <v>0.7306645053088516</v>
+        <v>0.09275254306366776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1100250245926873</v>
+        <v>0.3411335376708209</v>
       </c>
       <c r="F8">
-        <v>6.773526385770737</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008434969448126785</v>
+        <v>0.1945139304107357</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2070003298194578</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7470444331085986</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7080810588667248</v>
       </c>
       <c r="L8">
-        <v>0.01181385096057141</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2383354337782571</v>
+        <v>0.5365011500215289</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6695550788780587</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.794767247438358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.546642803116868</v>
+        <v>0.9463591197166181</v>
       </c>
       <c r="C9">
-        <v>1.022026494713657</v>
+        <v>0.1086339008069217</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1514360614748256</v>
+        <v>0.4590259072020331</v>
       </c>
       <c r="F9">
-        <v>8.6388059585191</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008131737891490029</v>
+        <v>0.2062086386395876</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2003839127343667</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9444156929480414</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9339986747823161</v>
       </c>
       <c r="L9">
-        <v>0.01401486248875017</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3151351834726057</v>
+        <v>0.7262447548103097</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6025044513099971</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.8064252672016323</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.281857893700078</v>
+        <v>1.121805668068674</v>
       </c>
       <c r="C10">
-        <v>1.253196501246919</v>
+        <v>0.1203204634980466</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1839190797543964</v>
+        <v>0.5491616989187733</v>
       </c>
       <c r="F10">
-        <v>10.10913565625026</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007911800107577475</v>
+        <v>0.218262686512837</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1976204596155142</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.099669282160988</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.100167231982908</v>
       </c>
       <c r="L10">
-        <v>0.01712820589284192</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.378972616655247</v>
+        <v>0.8682832957652096</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5580367889779758</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.8266874573663188</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.636147919285406</v>
+        <v>1.201858584469676</v>
       </c>
       <c r="C11">
-        <v>1.363807378436206</v>
+        <v>0.1256463592056747</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1993580393163867</v>
+        <v>0.5911405530673193</v>
       </c>
       <c r="F11">
-        <v>10.80912117819099</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007811454691786419</v>
+        <v>0.2246128759423627</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1968681369884777</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.173584062414847</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.175898018148615</v>
       </c>
       <c r="L11">
-        <v>0.01897590334769461</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4102238650111047</v>
+        <v>0.9336710627313209</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5389326634338829</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.838792031492801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.773755792691759</v>
+        <v>1.232216654477071</v>
       </c>
       <c r="C12">
-        <v>1.406657941098786</v>
+        <v>0.1276649849135083</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2053219121641234</v>
+        <v>0.6071958755160267</v>
       </c>
       <c r="F12">
-        <v>11.0796325449532</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007773320230109409</v>
+        <v>0.2271523691499766</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1966602464683262</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.202156282243635</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.204603666688939</v>
       </c>
       <c r="L12">
-        <v>0.01974877660239827</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4224387809152219</v>
+        <v>0.9585605852349914</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5318677165028234</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.8438217757578599</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.743955440150785</v>
+        <v>1.225676403176521</v>
       </c>
       <c r="C13">
-        <v>1.397383112834063</v>
+        <v>0.1272301491354</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2040318575312838</v>
+        <v>0.603730699657504</v>
       </c>
       <c r="F13">
-        <v>11.02111360314035</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007781540899937493</v>
+        <v>0.2265992788987106</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1967015216496222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.195974870502823</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.198420011748709</v>
       </c>
       <c r="L13">
-        <v>0.01957886674754761</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4197900048400456</v>
+        <v>0.9531941721176196</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5333816191210623</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.842718182068765</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.647396103417861</v>
+        <v>1.204355229801024</v>
       </c>
       <c r="C14">
-        <v>1.367312215963636</v>
+        <v>0.125812393516739</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1998461927897495</v>
+        <v>0.5924581394492492</v>
       </c>
       <c r="F14">
-        <v>10.83126103112386</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007808320667907037</v>
+        <v>0.2248190390769551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1968494642878085</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.175922342506851</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.178259039546816</v>
       </c>
       <c r="L14">
-        <v>0.01903794911386569</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4112207563540977</v>
+        <v>0.9357160576206454</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5383479858977367</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.8391967093484993</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.5887191703398</v>
+        <v>1.191301375164187</v>
       </c>
       <c r="C15">
-        <v>1.349024556142865</v>
+        <v>0.1249442286707705</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1972983876550458</v>
+        <v>0.5855746310145378</v>
       </c>
       <c r="F15">
-        <v>10.71571145887344</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007824703269454366</v>
+        <v>0.2237464607465967</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.196950246528381</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.163719033554855</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.165913759539194</v>
       </c>
       <c r="L15">
-        <v>0.01871652312311411</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4060235137373454</v>
+        <v>0.9250274909919582</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5414123219280391</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.8370987372456682</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.259151431165208</v>
+        <v>1.116579638721504</v>
       </c>
       <c r="C16">
-        <v>1.246092130505247</v>
+        <v>0.1199726340665705</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.182925236397395</v>
+        <v>0.5464394682608997</v>
       </c>
       <c r="F16">
-        <v>10.0640947284802</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007918344407250346</v>
+        <v>0.2178659831772691</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1976801538720068</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.094913836195474</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.095221526041513</v>
       </c>
       <c r="L16">
-        <v>0.01701703875606597</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3769798501051156</v>
+        <v>0.864027073522621</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5593085608339763</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.8259570838231269</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.062439263545912</v>
+        <v>1.070808343896971</v>
       </c>
       <c r="C17">
-        <v>1.184459968691158</v>
+        <v>0.1169254870360135</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1742918916639624</v>
+        <v>0.5226939613033394</v>
       </c>
       <c r="F17">
-        <v>9.672952538141743</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007975653769489355</v>
+        <v>0.2144875351708109</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.198260266621169</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.053617926122854</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.051895413172218</v>
       </c>
       <c r="L17">
-        <v>0.01609221392823912</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3597696737470883</v>
+        <v>0.8268153987982458</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5705806368724389</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.8198828482405958</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.951121093806933</v>
+        <v>1.044504048019547</v>
       </c>
       <c r="C18">
-        <v>1.149511074816871</v>
+        <v>0.1151737253437375</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1693869971909976</v>
+        <v>0.5091268148589236</v>
       </c>
       <c r="F18">
-        <v>9.450840096316398</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008008595404451383</v>
+        <v>0.2126252767673478</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1986411648127842</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.030167563564078</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.026988035596418</v>
       </c>
       <c r="L18">
-        <v>0.01560010258474165</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.350074554598983</v>
+        <v>0.8054839430877649</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5771693876129831</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.8166589076522399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.913727993015129</v>
+        <v>1.035601402890592</v>
       </c>
       <c r="C19">
-        <v>1.137758975394092</v>
+        <v>0.1145807467131874</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1677361143383251</v>
+        <v>0.5045482371107752</v>
       </c>
       <c r="F19">
-        <v>9.376101692368337</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0008019747797080519</v>
+        <v>0.2120083491112368</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1987781128101176</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.022276534782293</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.018556767274674</v>
       </c>
       <c r="L19">
-        <v>0.01544001739974377</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3468252308870845</v>
+        <v>0.7982732882937924</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5794180930666677</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.8156127672211397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.083186756559599</v>
+        <v>1.075678421177912</v>
       </c>
       <c r="C20">
-        <v>1.190967844624652</v>
+        <v>0.1172497672370554</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1752044884838924</v>
+        <v>0.5252122000915875</v>
       </c>
       <c r="F20">
-        <v>9.71428764617022</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007969555902871962</v>
+        <v>0.2148387285285978</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1981935931714318</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.057981969537906</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.056506186379011</v>
       </c>
       <c r="L20">
-        <v>0.01618646781015443</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3615802276378588</v>
+        <v>0.8307691013083343</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5693697475956867</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.8205013207014389</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.675659059904604</v>
+        <v>1.210616512007675</v>
       </c>
       <c r="C21">
-        <v>1.376116957222109</v>
+        <v>0.1262287694700177</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2010722359532977</v>
+        <v>0.595764697932907</v>
       </c>
       <c r="F21">
-        <v>10.88686899102481</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007800459325889329</v>
+        <v>0.2253381954933005</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1968038836943435</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.181795473587101</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.184179978532768</v>
       </c>
       <c r="L21">
-        <v>0.01919474297441681</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4137268533952962</v>
+        <v>0.9408461689557726</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5368845833845661</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.8402186912890528</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.083330059220089</v>
+        <v>1.299066145194416</v>
       </c>
       <c r="C22">
-        <v>1.502858623425141</v>
+        <v>0.1321079363023614</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.218676874465757</v>
+        <v>0.642810322216036</v>
       </c>
       <c r="F22">
-        <v>11.68553468524698</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007689095293556809</v>
+        <v>0.2329912056500802</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1963466845724327</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.266176347448464</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.267789757692043</v>
       </c>
       <c r="L22">
-        <v>0.02159440331300999</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4500662927356203</v>
+        <v>1.013546433006233</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5166447801429364</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.8557205450390057</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.86364683615983</v>
+        <v>1.251831976859535</v>
       </c>
       <c r="C23">
-        <v>1.434619150950823</v>
+        <v>0.1289689631137918</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2092084322196897</v>
+        <v>0.6176090894698518</v>
       </c>
       <c r="F23">
-        <v>11.25594338482995</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007748646161886432</v>
+        <v>0.2288307380717427</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1965478963545451</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.22078187759783</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.22314753378069</v>
       </c>
       <c r="L23">
-        <v>0.0202696662090851</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4304402357842747</v>
+        <v>0.9746694584786937</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5273537944120505</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.8471968941510966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.073801331654977</v>
+        <v>1.073476628047814</v>
       </c>
       <c r="C24">
-        <v>1.188024138706169</v>
+        <v>0.1171031599301244</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1747917227708626</v>
+        <v>0.5240734426413454</v>
       </c>
       <c r="F24">
-        <v>9.695591516187307</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007972312758881757</v>
+        <v>0.2146797054159322</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.198223588978756</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.056008086433195</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.054421652100189</v>
       </c>
       <c r="L24">
-        <v>0.01614373314972894</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3607610601971487</v>
+        <v>0.8289814404835525</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5699168539323622</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.8202208761699126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.290125057226987</v>
+        <v>0.8819060988251408</v>
       </c>
       <c r="C25">
-        <v>0.9407082039561487</v>
+        <v>0.1043359928125227</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1399349736376649</v>
+        <v>0.4265815373115984</v>
       </c>
       <c r="F25">
-        <v>8.11943177246917</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008213002225189547</v>
+        <v>0.2024739353460276</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2018213670116396</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8895358779002862</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8728795678065921</v>
       </c>
       <c r="L25">
-        <v>0.01318786840660024</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2932328338993742</v>
+        <v>0.6745149969152351</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6198287091931221</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.801329108071684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7412165067532612</v>
+        <v>0.2403245088184178</v>
       </c>
       <c r="C2">
-        <v>0.09494647986638682</v>
+        <v>0.0634223395761353</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3570862732715625</v>
+        <v>0.177508499017442</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1957687018939964</v>
+        <v>0.3486100814986131</v>
       </c>
       <c r="H2">
-        <v>0.2058604545815115</v>
+        <v>0.5268670116760177</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7393065371897336</v>
+        <v>0.2275448627089958</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5624804922893603</v>
+        <v>0.2035923660319341</v>
       </c>
       <c r="N2">
-        <v>0.6597652202158919</v>
+        <v>1.258827391824198</v>
       </c>
       <c r="O2">
-        <v>0.7951440370029985</v>
+        <v>1.687441793970777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6459433782963231</v>
+        <v>0.2108832419778537</v>
       </c>
       <c r="C3">
-        <v>0.08858261979158044</v>
+        <v>0.06128855930615629</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.311126282937721</v>
+        <v>0.1659538764275936</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1924870191177561</v>
+        <v>0.351215470347384</v>
       </c>
       <c r="H3">
-        <v>0.2093958588030205</v>
+        <v>0.5312230593745824</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6487089201571052</v>
+        <v>0.1987109884060345</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4873372345376907</v>
+        <v>0.1821749732985012</v>
       </c>
       <c r="N3">
-        <v>0.6887006901153434</v>
+        <v>1.271542974129794</v>
       </c>
       <c r="O3">
-        <v>0.7952851610155705</v>
+        <v>1.701875517631947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5874358874562233</v>
+        <v>0.1927774303031526</v>
       </c>
       <c r="C4">
-        <v>0.0846728414478477</v>
+        <v>0.05997247440143383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2833797684323045</v>
+        <v>0.1589817332416956</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1910450089133562</v>
+        <v>0.3530736056629351</v>
       </c>
       <c r="H4">
-        <v>0.2119388884013063</v>
+        <v>0.5341203111805584</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5930055221310653</v>
+        <v>0.1809326983169655</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4415018364319678</v>
+        <v>0.1690761615674816</v>
       </c>
       <c r="N4">
-        <v>0.7073529566585108</v>
+        <v>1.27979691885438</v>
       </c>
       <c r="O4">
-        <v>0.7973585791887388</v>
+        <v>1.711744608653845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5635852645514774</v>
+        <v>0.1853923994532352</v>
       </c>
       <c r="C5">
-        <v>0.08307872734200572</v>
+        <v>0.05943470958581543</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2721796295238832</v>
+        <v>0.1561711622769906</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1905944189275743</v>
+        <v>0.3538957139314221</v>
       </c>
       <c r="H5">
-        <v>0.2130657741067381</v>
+        <v>0.5353569737162402</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5702816638549422</v>
+        <v>0.1736696910071203</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4228882664641347</v>
+        <v>0.16375131039878</v>
       </c>
       <c r="N5">
-        <v>0.715171354282564</v>
+        <v>1.283272786664877</v>
       </c>
       <c r="O5">
-        <v>0.7986818300951768</v>
+        <v>1.716019384014231</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5596242144094106</v>
+        <v>0.184165725771237</v>
       </c>
       <c r="C6">
-        <v>0.08281396755248949</v>
+        <v>0.05934532786395152</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2703259608908439</v>
+        <v>0.1557063147960278</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1905276758753658</v>
+        <v>0.3540361420864357</v>
       </c>
       <c r="H6">
-        <v>0.2132582773417937</v>
+        <v>0.5355657042473823</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5665067743755969</v>
+        <v>0.1724625873693668</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4198010838287445</v>
+        <v>0.1628679110558267</v>
       </c>
       <c r="N6">
-        <v>0.7164825764369063</v>
+        <v>1.283856736707737</v>
       </c>
       <c r="O6">
-        <v>0.7989298396095137</v>
+        <v>1.71674448705997</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5871142710674633</v>
+        <v>0.1926778599720649</v>
       </c>
       <c r="C7">
-        <v>0.0846513464268952</v>
+        <v>0.05996522772888824</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2832283026841651</v>
+        <v>0.1589437050678342</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1910383862974143</v>
+        <v>0.3530844302157661</v>
       </c>
       <c r="H7">
-        <v>0.2119537231267046</v>
+        <v>0.5341367624275293</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.592699165072716</v>
+        <v>0.1808348200048613</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4412505599192116</v>
+        <v>0.1690042959648963</v>
       </c>
       <c r="N7">
-        <v>0.7074575246750783</v>
+        <v>1.279843340802312</v>
       </c>
       <c r="O7">
-        <v>0.7973745157606231</v>
+        <v>1.711801235362017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.708364552819063</v>
+        <v>0.2301793981734477</v>
       </c>
       <c r="C8">
-        <v>0.09275254306366776</v>
+        <v>0.06268786907369872</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3411335376708209</v>
+        <v>0.173498955447144</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1945139304107357</v>
+        <v>0.349454738216366</v>
       </c>
       <c r="H8">
-        <v>0.2070003298194578</v>
+        <v>0.5283227894467046</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7080810588667248</v>
+        <v>0.2176185944867086</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5365011500215289</v>
+        <v>0.1961969768694019</v>
       </c>
       <c r="N8">
-        <v>0.6695550788780587</v>
+        <v>1.26311907040542</v>
       </c>
       <c r="O8">
-        <v>0.794767247438358</v>
+        <v>1.692209529658101</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9463591197166181</v>
+        <v>0.3034746813862625</v>
       </c>
       <c r="C9">
-        <v>0.1086339008069217</v>
+        <v>0.06797822700022493</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4590259072020331</v>
+        <v>0.2030218565510253</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2062086386395876</v>
+        <v>0.3443910777095738</v>
       </c>
       <c r="H9">
-        <v>0.2003839127343667</v>
+        <v>0.5186867381479487</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9339986747823161</v>
+        <v>0.2891467992538992</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7262447548103097</v>
+        <v>0.2499310250605049</v>
       </c>
       <c r="N9">
-        <v>0.6025044513099971</v>
+        <v>1.233863866737092</v>
       </c>
       <c r="O9">
-        <v>0.8064252672016323</v>
+        <v>1.661783676680798</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.121805668068674</v>
+        <v>0.3571576059917447</v>
       </c>
       <c r="C10">
-        <v>0.1203204634980466</v>
+        <v>0.0718334999612722</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5491616989187733</v>
+        <v>0.2253239855342386</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.218262686512837</v>
+        <v>0.3419285818229625</v>
       </c>
       <c r="H10">
-        <v>0.1976204596155142</v>
+        <v>0.5126815210477389</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.100167231982908</v>
+        <v>0.3413131436348351</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8682832957652096</v>
+        <v>0.2896633022169723</v>
       </c>
       <c r="N10">
-        <v>0.5580367889779758</v>
+        <v>1.214525623300304</v>
       </c>
       <c r="O10">
-        <v>0.8266874573663188</v>
+        <v>1.644311272702822</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.201858584469676</v>
+        <v>0.3815396172784631</v>
       </c>
       <c r="C11">
-        <v>0.1256463592056747</v>
+        <v>0.0735801437845538</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5911405530673193</v>
+        <v>0.2356057813172754</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2246128759423627</v>
+        <v>0.341082646327358</v>
       </c>
       <c r="H11">
-        <v>0.1968681369884777</v>
+        <v>0.5101825421181729</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.175898018148615</v>
+        <v>0.3649579948809958</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9336710627313209</v>
+        <v>0.3077948295141013</v>
       </c>
       <c r="N11">
-        <v>0.5389326634338829</v>
+        <v>1.206195565599351</v>
       </c>
       <c r="O11">
-        <v>0.838792031492801</v>
+        <v>1.637424486698478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.232216654477071</v>
+        <v>0.3907664881040205</v>
       </c>
       <c r="C12">
-        <v>0.1276649849135083</v>
+        <v>0.07424048683675721</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6071958755160267</v>
+        <v>0.2395190524741935</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2271523691499766</v>
+        <v>0.3408018440481655</v>
       </c>
       <c r="H12">
-        <v>0.1966602464683262</v>
+        <v>0.5092696994810879</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.204603666688939</v>
+        <v>0.3738989468864986</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9585605852349914</v>
+        <v>0.3146689789071573</v>
       </c>
       <c r="N12">
-        <v>0.5318677165028234</v>
+        <v>1.203108318842702</v>
       </c>
       <c r="O12">
-        <v>0.8438217757578599</v>
+        <v>1.634969432203391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.225676403176521</v>
+        <v>0.3887795944305026</v>
       </c>
       <c r="C13">
-        <v>0.1272301491354</v>
+        <v>0.0740983186080939</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.603730699657504</v>
+        <v>0.2386753773722177</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2265992788987106</v>
+        <v>0.3408605599856287</v>
       </c>
       <c r="H13">
-        <v>0.1967015216496222</v>
+        <v>0.5094648082578388</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.198420011748709</v>
+        <v>0.371973931767684</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9531941721176196</v>
+        <v>0.3131881473811902</v>
       </c>
       <c r="N13">
-        <v>0.5333816191210623</v>
+        <v>1.203770225284735</v>
       </c>
       <c r="O13">
-        <v>0.842718182068765</v>
+        <v>1.635491372466888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.204355229801024</v>
+        <v>0.3822988420444347</v>
       </c>
       <c r="C14">
-        <v>0.125812393516739</v>
+        <v>0.07363449237503517</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5924581394492492</v>
+        <v>0.235927331206085</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2248190390769551</v>
+        <v>0.3410587516641499</v>
       </c>
       <c r="H14">
-        <v>0.1968494642878085</v>
+        <v>0.5101067713638443</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.178259039546816</v>
+        <v>0.3656938325248404</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9357160576206454</v>
+        <v>0.3083602073742924</v>
       </c>
       <c r="N14">
-        <v>0.5383479858977367</v>
+        <v>1.205940229790308</v>
       </c>
       <c r="O14">
-        <v>0.8391967093484993</v>
+        <v>1.637219444082262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.191301375164187</v>
+        <v>0.3783283886293418</v>
       </c>
       <c r="C15">
-        <v>0.1249442286707705</v>
+        <v>0.07335024429593773</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5855746310145378</v>
+        <v>0.2342466539514163</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2237464607465967</v>
+        <v>0.3411853012699524</v>
       </c>
       <c r="H15">
-        <v>0.196950246528381</v>
+        <v>0.5105043502280324</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.165913759539194</v>
+        <v>0.3618454037045069</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9250274909919582</v>
+        <v>0.3054040115566181</v>
       </c>
       <c r="N15">
-        <v>0.5414123219280391</v>
+        <v>1.207278167461194</v>
       </c>
       <c r="O15">
-        <v>0.8370987372456682</v>
+        <v>1.638297845088118</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.116579638721504</v>
+        <v>0.3555633631234514</v>
       </c>
       <c r="C16">
-        <v>0.1199726340665705</v>
+        <v>0.07171920504647744</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5464394682608997</v>
+        <v>0.2246548051200463</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2178659831772691</v>
+        <v>0.3419893928534421</v>
       </c>
       <c r="H16">
-        <v>0.1976801538720068</v>
+        <v>0.512849519068304</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.095221526041513</v>
+        <v>0.3397661269289642</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.864027073522621</v>
+        <v>0.2884795067953405</v>
       </c>
       <c r="N16">
-        <v>0.5593085608339763</v>
+        <v>1.215079410354953</v>
       </c>
       <c r="O16">
-        <v>0.8259570838231269</v>
+        <v>1.644782715805704</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.070808343896971</v>
+        <v>0.3415874999280959</v>
       </c>
       <c r="C17">
-        <v>0.1169254870360135</v>
+        <v>0.07071675368651142</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5226939613033394</v>
+        <v>0.2188055758941516</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2144875351708109</v>
+        <v>0.3425529916392662</v>
       </c>
       <c r="H17">
-        <v>0.198260266621169</v>
+        <v>0.5143478264894199</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.051895413172218</v>
+        <v>0.3261988606507487</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8268153987982458</v>
+        <v>0.2781114436401424</v>
       </c>
       <c r="N17">
-        <v>0.5705806368724389</v>
+        <v>1.219984838334618</v>
       </c>
       <c r="O17">
-        <v>0.8198828482405958</v>
+        <v>1.649032977244673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.044504048019547</v>
+        <v>0.3335453486667461</v>
       </c>
       <c r="C18">
-        <v>0.1151737253437375</v>
+        <v>0.07013950097208976</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5091268148589236</v>
+        <v>0.2154540874860018</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2126252767673478</v>
+        <v>0.3429029682884561</v>
       </c>
       <c r="H18">
-        <v>0.1986411648127842</v>
+        <v>0.5152315286130502</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.026988035596418</v>
+        <v>0.3183872737548654</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8054839430877649</v>
+        <v>0.2721533887230336</v>
       </c>
       <c r="N18">
-        <v>0.5771693876129831</v>
+        <v>1.222850266828594</v>
       </c>
       <c r="O18">
-        <v>0.8166589076522399</v>
+        <v>1.651577517741615</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.035601402890592</v>
+        <v>0.3308218110394137</v>
       </c>
       <c r="C19">
-        <v>0.1145807467131874</v>
+        <v>0.0699439396013446</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5045482371107752</v>
+        <v>0.2143215304530344</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2120083491112368</v>
+        <v>0.3430258942472264</v>
       </c>
       <c r="H19">
-        <v>0.1987781128101176</v>
+        <v>0.5155344993604274</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.018556767274674</v>
+        <v>0.3157410362914845</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7982732882937924</v>
+        <v>0.2701370202601652</v>
       </c>
       <c r="N19">
-        <v>0.5794180930666677</v>
+        <v>1.223828000901825</v>
       </c>
       <c r="O19">
-        <v>0.8156127672211397</v>
+        <v>1.652456208302027</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.075678421177912</v>
+        <v>0.343075631190203</v>
       </c>
       <c r="C20">
-        <v>0.1172497672370554</v>
+        <v>0.07082353594215363</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5252122000915875</v>
+        <v>0.2194269069646282</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2148387285285978</v>
+        <v>0.342490323699117</v>
       </c>
       <c r="H20">
-        <v>0.1981935931714318</v>
+        <v>0.5141860610502391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.056506186379011</v>
+        <v>0.3276439564376403</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8307691013083343</v>
+        <v>0.2792145853451586</v>
       </c>
       <c r="N20">
-        <v>0.5693697475956867</v>
+        <v>1.219458097795339</v>
       </c>
       <c r="O20">
-        <v>0.8205013207014389</v>
+        <v>1.648570188815896</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.210616512007675</v>
+        <v>0.3842025648892218</v>
       </c>
       <c r="C21">
-        <v>0.1262287694700177</v>
+        <v>0.07377075887582407</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.595764697932907</v>
+        <v>0.2367339609521224</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2253381954933005</v>
+        <v>0.3409994642298884</v>
       </c>
       <c r="H21">
-        <v>0.1968038836943435</v>
+        <v>0.5099173030743174</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.184179978532768</v>
+        <v>0.3675388022860773</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9408461689557726</v>
+        <v>0.3097780702846009</v>
       </c>
       <c r="N21">
-        <v>0.5368845833845661</v>
+        <v>1.205301023923951</v>
       </c>
       <c r="O21">
-        <v>0.8402186912890528</v>
+        <v>1.63670771858861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.299066145194416</v>
+        <v>0.4110457877701776</v>
       </c>
       <c r="C22">
-        <v>0.1321079363023614</v>
+        <v>0.07569066339230801</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.642810322216036</v>
+        <v>0.2481604763730445</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2329912056500802</v>
+        <v>0.3402555865168893</v>
       </c>
       <c r="H22">
-        <v>0.1963466845724327</v>
+        <v>0.5073224849838667</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.267789757692043</v>
+        <v>0.3935373214889069</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.013546433006233</v>
+        <v>0.3298004450258532</v>
       </c>
       <c r="N22">
-        <v>0.5166447801429364</v>
+        <v>1.196440055029207</v>
       </c>
       <c r="O22">
-        <v>0.8557205450390057</v>
+        <v>1.629845754397763</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.251831976859535</v>
+        <v>0.3967224823425397</v>
       </c>
       <c r="C23">
-        <v>0.1289689631137918</v>
+        <v>0.07466656378663572</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6176090894698518</v>
+        <v>0.2420513232286936</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2288307380717427</v>
+        <v>0.3406314870881317</v>
       </c>
       <c r="H23">
-        <v>0.1965478963545451</v>
+        <v>0.5086895444183597</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.22314753378069</v>
+        <v>0.37966845330007</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9746694584786937</v>
+        <v>0.3191098190133346</v>
       </c>
       <c r="N23">
-        <v>0.5273537944120505</v>
+        <v>1.201133494836885</v>
       </c>
       <c r="O23">
-        <v>0.8471968941510966</v>
+        <v>1.633426542188829</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.073476628047814</v>
+        <v>0.3424028695636991</v>
       </c>
       <c r="C24">
-        <v>0.1171031599301244</v>
+        <v>0.07077526257903344</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5240734426413454</v>
+        <v>0.2191459679676413</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2146797054159322</v>
+        <v>0.3425185750303754</v>
       </c>
       <c r="H24">
-        <v>0.198223588978756</v>
+        <v>0.5142591257243083</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.054421652100189</v>
+        <v>0.3269906646805794</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8289814404835525</v>
+        <v>0.2787158466201163</v>
       </c>
       <c r="N24">
-        <v>0.5699168539323622</v>
+        <v>1.219696096296058</v>
       </c>
       <c r="O24">
-        <v>0.8202208761699126</v>
+        <v>1.648779100842901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8819060988251408</v>
+        <v>0.2836744358168346</v>
       </c>
       <c r="C25">
-        <v>0.1043359928125227</v>
+        <v>0.06655245339403848</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4265815373115984</v>
+        <v>0.1949287365514607</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2024739353460276</v>
+        <v>0.3455404497146546</v>
       </c>
       <c r="H25">
-        <v>0.2018213670116396</v>
+        <v>0.5211047508732989</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8728795678065921</v>
+        <v>0.2698629969668787</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6745149969152351</v>
+        <v>0.2353502696692118</v>
       </c>
       <c r="N25">
-        <v>0.6198287091931221</v>
+        <v>1.241399417789648</v>
       </c>
       <c r="O25">
-        <v>0.801329108071684</v>
+        <v>1.669158049056648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2403245088184178</v>
+        <v>0.7412165067533749</v>
       </c>
       <c r="C2">
-        <v>0.0634223395761353</v>
+        <v>0.09494647986637972</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.177508499017442</v>
+        <v>0.3570862732715767</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3486100814986131</v>
+        <v>0.1957687018940604</v>
       </c>
       <c r="H2">
-        <v>0.5268670116760177</v>
+        <v>0.2058604545813907</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2275448627089958</v>
+        <v>0.7393065371898473</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2035923660319341</v>
+        <v>0.5624804922893816</v>
       </c>
       <c r="N2">
-        <v>1.258827391824198</v>
+        <v>0.6597652202158955</v>
       </c>
       <c r="O2">
-        <v>1.687441793970777</v>
+        <v>0.7951440370029985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2108832419778537</v>
+        <v>0.6459433782962378</v>
       </c>
       <c r="C3">
-        <v>0.06128855930615629</v>
+        <v>0.08858261979181492</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1659538764275936</v>
+        <v>0.3111262829377424</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.351215470347384</v>
+        <v>0.1924870191176851</v>
       </c>
       <c r="H3">
-        <v>0.5312230593745824</v>
+        <v>0.2093958588030276</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1987109884060345</v>
+        <v>0.6487089201571052</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1821749732985012</v>
+        <v>0.4873372345376694</v>
       </c>
       <c r="N3">
-        <v>1.271542974129794</v>
+        <v>0.6887006901154038</v>
       </c>
       <c r="O3">
-        <v>1.701875517631947</v>
+        <v>0.7952851610155847</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1927774303031526</v>
+        <v>0.5874358874562802</v>
       </c>
       <c r="C4">
-        <v>0.05997247440143383</v>
+        <v>0.08467284144767717</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1589817332416956</v>
+        <v>0.2833797684323045</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3530736056629351</v>
+        <v>0.191045008913413</v>
       </c>
       <c r="H4">
-        <v>0.5341203111805584</v>
+        <v>0.2119388884013134</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1809326983169655</v>
+        <v>0.5930055221310369</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1690761615674816</v>
+        <v>0.4415018364319607</v>
       </c>
       <c r="N4">
-        <v>1.27979691885438</v>
+        <v>0.7073529566585073</v>
       </c>
       <c r="O4">
-        <v>1.711744608653845</v>
+        <v>0.797358579188753</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1853923994532352</v>
+        <v>0.5635852645515058</v>
       </c>
       <c r="C5">
-        <v>0.05943470958581543</v>
+        <v>0.08307872734152966</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1561711622769906</v>
+        <v>0.2721796295238619</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3538957139314221</v>
+        <v>0.1905944189276312</v>
       </c>
       <c r="H5">
-        <v>0.5353569737162402</v>
+        <v>0.2130657741068447</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1736696910071203</v>
+        <v>0.5702816638549422</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.16375131039878</v>
+        <v>0.4228882664641347</v>
       </c>
       <c r="N5">
-        <v>1.283272786664877</v>
+        <v>0.7151713542825604</v>
       </c>
       <c r="O5">
-        <v>1.716019384014231</v>
+        <v>0.7986818300951626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.184165725771237</v>
+        <v>0.5596242144095527</v>
       </c>
       <c r="C6">
-        <v>0.05934532786395152</v>
+        <v>0.08281396755268133</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1557063147960278</v>
+        <v>0.2703259608908013</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3540361420864357</v>
+        <v>0.1905276758754297</v>
       </c>
       <c r="H6">
-        <v>0.5355657042473823</v>
+        <v>0.2132582773417795</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1724625873693668</v>
+        <v>0.5665067743755259</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1628679110558267</v>
+        <v>0.4198010838287374</v>
       </c>
       <c r="N6">
-        <v>1.283856736707737</v>
+        <v>0.7164825764369098</v>
       </c>
       <c r="O6">
-        <v>1.71674448705997</v>
+        <v>0.7989298396095563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1926778599720649</v>
+        <v>0.5871142710675201</v>
       </c>
       <c r="C7">
-        <v>0.05996522772888824</v>
+        <v>0.08465134642690231</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1589437050678342</v>
+        <v>0.2832283026841651</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3530844302157661</v>
+        <v>0.1910383862974143</v>
       </c>
       <c r="H7">
-        <v>0.5341367624275293</v>
+        <v>0.2119537231268254</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1808348200048613</v>
+        <v>0.5926991650726592</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1690042959648963</v>
+        <v>0.4412505599192187</v>
       </c>
       <c r="N7">
-        <v>1.279843340802312</v>
+        <v>0.7074575246750889</v>
       </c>
       <c r="O7">
-        <v>1.711801235362017</v>
+        <v>0.7973745157605663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2301793981734477</v>
+        <v>0.7083645528190914</v>
       </c>
       <c r="C8">
-        <v>0.06268786907369872</v>
+        <v>0.09275254306363223</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.173498955447144</v>
+        <v>0.3411335376708422</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.349454738216366</v>
+        <v>0.1945139304106718</v>
       </c>
       <c r="H8">
-        <v>0.5283227894467046</v>
+        <v>0.2070003298193441</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2176185944867086</v>
+        <v>0.7080810588665543</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1961969768694019</v>
+        <v>0.5365011500215431</v>
       </c>
       <c r="N8">
-        <v>1.26311907040542</v>
+        <v>0.6695550788780693</v>
       </c>
       <c r="O8">
-        <v>1.692209529658101</v>
+        <v>0.7947672474383154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3034746813862625</v>
+        <v>0.9463591197163908</v>
       </c>
       <c r="C9">
-        <v>0.06797822700022493</v>
+        <v>0.1086339008069643</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2030218565510253</v>
+        <v>0.4590259072020402</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3443910777095738</v>
+        <v>0.2062086386395947</v>
       </c>
       <c r="H9">
-        <v>0.5186867381479487</v>
+        <v>0.2003839127343596</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2891467992538992</v>
+        <v>0.9339986747824298</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2499310250605049</v>
+        <v>0.7262447548103097</v>
       </c>
       <c r="N9">
-        <v>1.233863866737092</v>
+        <v>0.60250445130999</v>
       </c>
       <c r="O9">
-        <v>1.661783676680798</v>
+        <v>0.8064252672015897</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3571576059917447</v>
+        <v>1.121805668068788</v>
       </c>
       <c r="C10">
-        <v>0.0718334999612722</v>
+        <v>0.120320463498075</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2253239855342386</v>
+        <v>0.5491616989187662</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3419285818229625</v>
+        <v>0.2182626865127233</v>
       </c>
       <c r="H10">
-        <v>0.5126815210477389</v>
+        <v>0.1976204596155142</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3413131436348351</v>
+        <v>1.100167231982851</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2896633022169723</v>
+        <v>0.8682832957652025</v>
       </c>
       <c r="N10">
-        <v>1.214525623300304</v>
+        <v>0.5580367889780398</v>
       </c>
       <c r="O10">
-        <v>1.644311272702822</v>
+        <v>0.8266874573662761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3815396172784631</v>
+        <v>1.201858584469591</v>
       </c>
       <c r="C11">
-        <v>0.0735801437845538</v>
+        <v>0.1256463592057315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2356057813172754</v>
+        <v>0.5911405530673051</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.341082646327358</v>
+        <v>0.2246128759423627</v>
       </c>
       <c r="H11">
-        <v>0.5101825421181729</v>
+        <v>0.1968681369884848</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3649579948809958</v>
+        <v>1.175898018148587</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3077948295141013</v>
+        <v>0.9336710627312996</v>
       </c>
       <c r="N11">
-        <v>1.206195565599351</v>
+        <v>0.538932663433954</v>
       </c>
       <c r="O11">
-        <v>1.637424486698478</v>
+        <v>0.8387920314927442</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3907664881040205</v>
+        <v>1.232216654476929</v>
       </c>
       <c r="C12">
-        <v>0.07424048683675721</v>
+        <v>0.1276649849134941</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2395190524741935</v>
+        <v>0.6071958755160267</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3408018440481655</v>
+        <v>0.2271523691500335</v>
       </c>
       <c r="H12">
-        <v>0.5092696994810879</v>
+        <v>0.1966602464683262</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3738989468864986</v>
+        <v>1.204603666688826</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3146689789071573</v>
+        <v>0.9585605852349914</v>
       </c>
       <c r="N12">
-        <v>1.203108318842702</v>
+        <v>0.5318677165028163</v>
       </c>
       <c r="O12">
-        <v>1.634969432203391</v>
+        <v>0.8438217757578457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3887795944305026</v>
+        <v>1.225676403176521</v>
       </c>
       <c r="C13">
-        <v>0.0740983186080939</v>
+        <v>0.1272301491351584</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2386753773722177</v>
+        <v>0.6037306996574756</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3408605599856287</v>
+        <v>0.2265992788987035</v>
       </c>
       <c r="H13">
-        <v>0.5094648082578388</v>
+        <v>0.1967015216496222</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.371973931767684</v>
+        <v>1.198420011748652</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3131881473811902</v>
+        <v>0.9531941721176196</v>
       </c>
       <c r="N13">
-        <v>1.203770225284735</v>
+        <v>0.5333816191211191</v>
       </c>
       <c r="O13">
-        <v>1.635491372466888</v>
+        <v>0.8427181820687082</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3822988420444347</v>
+        <v>1.204355229801138</v>
       </c>
       <c r="C14">
-        <v>0.07363449237503517</v>
+        <v>0.1258123935164974</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.235927331206085</v>
+        <v>0.5924581394492634</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3410587516641499</v>
+        <v>0.2248190390769551</v>
       </c>
       <c r="H14">
-        <v>0.5101067713638443</v>
+        <v>0.1968494642879293</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3656938325248404</v>
+        <v>1.178259039546731</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3083602073742924</v>
+        <v>0.9357160576206383</v>
       </c>
       <c r="N14">
-        <v>1.205940229790308</v>
+        <v>0.5383479858977367</v>
       </c>
       <c r="O14">
-        <v>1.637219444082262</v>
+        <v>0.8391967093484425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3783283886293418</v>
+        <v>1.191301375164073</v>
       </c>
       <c r="C15">
-        <v>0.07335024429593773</v>
+        <v>0.1249442286707705</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2342466539514163</v>
+        <v>0.5855746310145378</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3411853012699524</v>
+        <v>0.2237464607465185</v>
       </c>
       <c r="H15">
-        <v>0.5105043502280324</v>
+        <v>0.1969502465283881</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3618454037045069</v>
+        <v>1.165913759539194</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3054040115566181</v>
+        <v>0.9250274909919725</v>
       </c>
       <c r="N15">
-        <v>1.207278167461194</v>
+        <v>0.5414123219279787</v>
       </c>
       <c r="O15">
-        <v>1.638297845088118</v>
+        <v>0.8370987372456824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3555633631234514</v>
+        <v>1.116579638721618</v>
       </c>
       <c r="C16">
-        <v>0.07171920504647744</v>
+        <v>0.1199726340667837</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2246548051200463</v>
+        <v>0.5464394682609424</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3419893928534421</v>
+        <v>0.2178659831772691</v>
       </c>
       <c r="H16">
-        <v>0.512849519068304</v>
+        <v>0.1976801538720068</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3397661269289642</v>
+        <v>1.09522152604157</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2884795067953405</v>
+        <v>0.8640270735226139</v>
       </c>
       <c r="N16">
-        <v>1.215079410354953</v>
+        <v>0.5593085608339834</v>
       </c>
       <c r="O16">
-        <v>1.644782715805704</v>
+        <v>0.8259570838230559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3415874999280959</v>
+        <v>1.070808343896886</v>
       </c>
       <c r="C17">
-        <v>0.07071675368651142</v>
+        <v>0.1169254870355303</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2188055758941516</v>
+        <v>0.5226939613033323</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3425529916392662</v>
+        <v>0.2144875351708109</v>
       </c>
       <c r="H17">
-        <v>0.5143478264894199</v>
+        <v>0.1982602666210553</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3261988606507487</v>
+        <v>1.051895413172076</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2781114436401424</v>
+        <v>0.82681539879826</v>
       </c>
       <c r="N17">
-        <v>1.219984838334618</v>
+        <v>0.5705806368724318</v>
       </c>
       <c r="O17">
-        <v>1.649032977244673</v>
+        <v>0.8198828482405389</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3335453486667461</v>
+        <v>1.044504048019434</v>
       </c>
       <c r="C18">
-        <v>0.07013950097208976</v>
+        <v>0.115173725343567</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2154540874860018</v>
+        <v>0.5091268148589165</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3429029682884561</v>
+        <v>0.212625276767362</v>
       </c>
       <c r="H18">
-        <v>0.5152315286130502</v>
+        <v>0.1986411648127913</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3183872737548654</v>
+        <v>1.026988035596304</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2721533887230336</v>
+        <v>0.8054839430877792</v>
       </c>
       <c r="N18">
-        <v>1.222850266828594</v>
+        <v>0.5771693876129369</v>
       </c>
       <c r="O18">
-        <v>1.651577517741615</v>
+        <v>0.8166589076522257</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3308218110394137</v>
+        <v>1.03560140289062</v>
       </c>
       <c r="C19">
-        <v>0.0699439396013446</v>
+        <v>0.1145807467126616</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2143215304530344</v>
+        <v>0.5045482371107681</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.3430258942472264</v>
+        <v>0.2120083491112297</v>
       </c>
       <c r="H19">
-        <v>0.5155344993604274</v>
+        <v>0.1987781128101247</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3157410362914845</v>
+        <v>1.018556767274816</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2701370202601652</v>
+        <v>0.7982732882938066</v>
       </c>
       <c r="N19">
-        <v>1.223828000901825</v>
+        <v>0.5794180930666109</v>
       </c>
       <c r="O19">
-        <v>1.652456208302027</v>
+        <v>0.8156127672211397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.343075631190203</v>
+        <v>1.075678421177884</v>
       </c>
       <c r="C20">
-        <v>0.07082353594215363</v>
+        <v>0.1172497672368138</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2194269069646282</v>
+        <v>0.5252122000915875</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.342490323699117</v>
+        <v>0.2148387285286546</v>
       </c>
       <c r="H20">
-        <v>0.5141860610502391</v>
+        <v>0.1981935931714318</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3276439564376403</v>
+        <v>1.056506186379011</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2792145853451586</v>
+        <v>0.8307691013083343</v>
       </c>
       <c r="N20">
-        <v>1.219458097795339</v>
+        <v>0.5693697475956938</v>
       </c>
       <c r="O20">
-        <v>1.648570188815896</v>
+        <v>0.8205013207014389</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3842025648892218</v>
+        <v>1.210616512007647</v>
       </c>
       <c r="C21">
-        <v>0.07377075887582407</v>
+        <v>0.1262287694697335</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2367339609521224</v>
+        <v>0.5957646979328786</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3409994642298884</v>
+        <v>0.2253381954933786</v>
       </c>
       <c r="H21">
-        <v>0.5099173030743174</v>
+        <v>0.1968038836943506</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3675388022860773</v>
+        <v>1.184179978532711</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3097780702846009</v>
+        <v>0.940846168955737</v>
       </c>
       <c r="N21">
-        <v>1.205301023923951</v>
+        <v>0.5368845833846194</v>
       </c>
       <c r="O21">
-        <v>1.63670771858861</v>
+        <v>0.8402186912890102</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4110457877701776</v>
+        <v>1.299066145194388</v>
       </c>
       <c r="C22">
-        <v>0.07569066339230801</v>
+        <v>0.1321079363019066</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2481604763730445</v>
+        <v>0.642810322216036</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.3402555865168893</v>
+        <v>0.2329912056500874</v>
       </c>
       <c r="H22">
-        <v>0.5073224849838667</v>
+        <v>0.1963466845723403</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3935373214889069</v>
+        <v>1.267789757692015</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3298004450258532</v>
+        <v>1.013546433006248</v>
       </c>
       <c r="N22">
-        <v>1.196440055029207</v>
+        <v>0.5166447801429328</v>
       </c>
       <c r="O22">
-        <v>1.629845754397763</v>
+        <v>0.8557205450389915</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3967224823425397</v>
+        <v>1.251831976859677</v>
       </c>
       <c r="C23">
-        <v>0.07466656378663572</v>
+        <v>0.128968963113735</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2420513232286936</v>
+        <v>0.6176090894698518</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3406314870881317</v>
+        <v>0.2288307380717782</v>
       </c>
       <c r="H23">
-        <v>0.5086895444183597</v>
+        <v>0.1965478963545522</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.37966845330007</v>
+        <v>1.223147533780804</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3191098190133346</v>
+        <v>0.9746694584787008</v>
       </c>
       <c r="N23">
-        <v>1.201133494836885</v>
+        <v>0.5273537944120612</v>
       </c>
       <c r="O23">
-        <v>1.633426542188829</v>
+        <v>0.8471968941510966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3424028695636991</v>
+        <v>1.073476628047842</v>
       </c>
       <c r="C24">
-        <v>0.07077526257903344</v>
+        <v>0.1171031599301386</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2191459679676413</v>
+        <v>0.5240734426413454</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3425185750303754</v>
+        <v>0.2146797054158824</v>
       </c>
       <c r="H24">
-        <v>0.5142591257243083</v>
+        <v>0.198223588978756</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3269906646805794</v>
+        <v>1.054421652100331</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2787158466201163</v>
+        <v>0.8289814404835525</v>
       </c>
       <c r="N24">
-        <v>1.219696096296058</v>
+        <v>0.5699168539323658</v>
       </c>
       <c r="O24">
-        <v>1.648779100842901</v>
+        <v>0.8202208761699268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2836744358168346</v>
+        <v>0.8819060988249987</v>
       </c>
       <c r="C25">
-        <v>0.06655245339403848</v>
+        <v>0.1043359928122314</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1949287365514607</v>
+        <v>0.4265815373116482</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3455404497146546</v>
+        <v>0.2024739353460348</v>
       </c>
       <c r="H25">
-        <v>0.5211047508732989</v>
+        <v>0.2018213670115259</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2698629969668787</v>
+        <v>0.8728795678064785</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2353502696692118</v>
+        <v>0.6745149969152351</v>
       </c>
       <c r="N25">
-        <v>1.241399417789648</v>
+        <v>0.6198287091931078</v>
       </c>
       <c r="O25">
-        <v>1.669158049056648</v>
+        <v>0.801329108071684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7412165067533749</v>
+        <v>2.567973646243161</v>
       </c>
       <c r="C2">
-        <v>0.09494647986637972</v>
+        <v>0.5337471796013631</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3570862732715767</v>
+        <v>0.06273196139351978</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.232300958778609</v>
       </c>
       <c r="G2">
-        <v>0.1957687018940604</v>
+        <v>0.7988005546257995</v>
       </c>
       <c r="H2">
-        <v>0.2058604545813907</v>
+        <v>0.006500158773275366</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004537199753996024</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5569397386958457</v>
       </c>
       <c r="K2">
-        <v>0.7393065371898473</v>
+        <v>0.539067353259739</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06565664027105811</v>
       </c>
       <c r="M2">
-        <v>0.5624804922893816</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6597652202158955</v>
+        <v>0.269032981288575</v>
       </c>
       <c r="O2">
-        <v>0.7951440370029985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4874446806219765</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6459433782962378</v>
+        <v>2.2362876734922</v>
       </c>
       <c r="C3">
-        <v>0.08858261979181492</v>
+        <v>0.4722581877851155</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3111262829377424</v>
+        <v>0.05988712848409783</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.164382296669373</v>
       </c>
       <c r="G3">
-        <v>0.1924870191176851</v>
+        <v>0.7497545909313175</v>
       </c>
       <c r="H3">
-        <v>0.2093958588030276</v>
+        <v>0.009342614416931794</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006961566564486876</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5397543477927371</v>
       </c>
       <c r="K3">
-        <v>0.6487089201571052</v>
+        <v>0.531842645221122</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06178835079693101</v>
       </c>
       <c r="M3">
-        <v>0.4873372345376694</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6887006901154038</v>
+        <v>0.2409453073312449</v>
       </c>
       <c r="O3">
-        <v>0.7952851610155847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4259967914275578</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5874358874562802</v>
+        <v>2.032570113962834</v>
       </c>
       <c r="C4">
-        <v>0.08467284144767717</v>
+        <v>0.4347466149796446</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2833797684323045</v>
+        <v>0.05813365663917303</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.123308964695795</v>
       </c>
       <c r="G4">
-        <v>0.191045008913413</v>
+        <v>0.7202383481801036</v>
       </c>
       <c r="H4">
-        <v>0.2119388884013134</v>
+        <v>0.0114135247295872</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008821658771092977</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5295950197811834</v>
       </c>
       <c r="K4">
-        <v>0.5930055221310369</v>
+        <v>0.5277048972765321</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05939464194943156</v>
       </c>
       <c r="M4">
-        <v>0.4415018364319607</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7073529566585073</v>
+        <v>0.2238209803852058</v>
       </c>
       <c r="O4">
-        <v>0.797358579188753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3883349116100732</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5635852645515058</v>
+        <v>1.9493976519596</v>
       </c>
       <c r="C5">
-        <v>0.08307872734152966</v>
+        <v>0.4200017312833779</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2721796295238619</v>
+        <v>0.05741329919016547</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.105502486124678</v>
       </c>
       <c r="G5">
-        <v>0.1905944189276312</v>
+        <v>0.7069560700935824</v>
       </c>
       <c r="H5">
-        <v>0.2130657741068447</v>
+        <v>0.0123408321703747</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009752962927234154</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5248311237218104</v>
       </c>
       <c r="K5">
-        <v>0.5702816638549422</v>
+        <v>0.5252058158923241</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05849191757766548</v>
       </c>
       <c r="M5">
-        <v>0.4228882664641347</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7151713542825604</v>
+        <v>0.2171489073711683</v>
       </c>
       <c r="O5">
-        <v>0.7986818300951626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3731431147087036</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5596242144095527</v>
+        <v>1.93543507813348</v>
       </c>
       <c r="C6">
-        <v>0.08281396755268133</v>
+        <v>0.4181579107431617</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2703259608908013</v>
+        <v>0.05728977458635054</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.101068178679292</v>
       </c>
       <c r="G6">
-        <v>0.1905276758754297</v>
+        <v>0.7030594389060241</v>
       </c>
       <c r="H6">
-        <v>0.2132582773417795</v>
+        <v>0.01250572667802305</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01002331281518831</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5231702317579163</v>
       </c>
       <c r="K6">
-        <v>0.5665067743755259</v>
+        <v>0.5237172032389452</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05843736631431184</v>
       </c>
       <c r="M6">
-        <v>0.4198010838287374</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7164825764369098</v>
+        <v>0.2163841656855752</v>
       </c>
       <c r="O6">
-        <v>0.7989298396095563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3707961155874671</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5871142710675201</v>
+        <v>2.031036454579123</v>
       </c>
       <c r="C7">
-        <v>0.08465134642690231</v>
+        <v>0.4361962464211047</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2832283026841651</v>
+        <v>0.05811386126675266</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.119009330062156</v>
       </c>
       <c r="G7">
-        <v>0.1910383862974143</v>
+        <v>0.7154143996081928</v>
       </c>
       <c r="H7">
-        <v>0.2119537231268254</v>
+        <v>0.01144176251970182</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00911762731810839</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5271404947900322</v>
       </c>
       <c r="K7">
-        <v>0.5926991650726592</v>
+        <v>0.524728410960229</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05964480024578478</v>
       </c>
       <c r="M7">
-        <v>0.4412505599192187</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7074575246750889</v>
+        <v>0.2246649966838206</v>
       </c>
       <c r="O7">
-        <v>0.7973745157605663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3886082923182457</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7083645528190914</v>
+        <v>2.45304424987637</v>
       </c>
       <c r="C8">
-        <v>0.09275254306363223</v>
+        <v>0.5146953753848038</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3411335376708422</v>
+        <v>0.06173867738256167</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.203378647087916</v>
       </c>
       <c r="G8">
-        <v>0.1945139304106718</v>
+        <v>0.775605759668494</v>
       </c>
       <c r="H8">
-        <v>0.2070003298193441</v>
+        <v>0.007426575642530658</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005627808076502205</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5477743513677069</v>
       </c>
       <c r="K8">
-        <v>0.7080810588665543</v>
+        <v>0.5326333091679842</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06468067254527199</v>
       </c>
       <c r="M8">
-        <v>0.5365011500215431</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6695550788780693</v>
+        <v>0.2605648470895829</v>
       </c>
       <c r="O8">
-        <v>0.7947672474383154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4668764719396634</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9463591197163908</v>
+        <v>3.281837843145354</v>
       </c>
       <c r="C9">
-        <v>0.1086339008069643</v>
+        <v>0.6680748983885962</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4590259072020402</v>
+        <v>0.0688620770257744</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.381623335278775</v>
       </c>
       <c r="G9">
-        <v>0.2062086386395947</v>
+        <v>0.9073865912956052</v>
       </c>
       <c r="H9">
-        <v>0.2003839127343596</v>
+        <v>0.002289508705131449</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00152863503029721</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5959166785361987</v>
       </c>
       <c r="K9">
-        <v>0.9339986747824298</v>
+        <v>0.5559775170597447</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07393752783182705</v>
       </c>
       <c r="M9">
-        <v>0.7262447548103097</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.60250445130999</v>
+        <v>0.3303905224245796</v>
       </c>
       <c r="O9">
-        <v>0.8064252672015897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6202372388885848</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.121805668068788</v>
+        <v>3.895689422876387</v>
       </c>
       <c r="C10">
-        <v>0.120320463498075</v>
+        <v>0.7882553358764994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5491616989187662</v>
+        <v>0.07342735682269996</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.487962145305474</v>
       </c>
       <c r="G10">
-        <v>0.2182626865127233</v>
+        <v>0.9863020691782509</v>
       </c>
       <c r="H10">
-        <v>0.1976204596155142</v>
+        <v>0.0006880487770732913</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008944233683774172</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6225523122215293</v>
       </c>
       <c r="K10">
-        <v>1.100167231982851</v>
+        <v>0.5619489873701369</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08287221698034841</v>
       </c>
       <c r="M10">
-        <v>0.8682832957652025</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5580367889780398</v>
+        <v>0.3732983572940469</v>
       </c>
       <c r="O10">
-        <v>0.8266874573662761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.7288328100099903</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.201858584469591</v>
+        <v>4.205353715627439</v>
       </c>
       <c r="C11">
-        <v>0.1256463592057315</v>
+        <v>0.8866652601207079</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5911405530673051</v>
+        <v>0.07164002267051384</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.306209522667316</v>
       </c>
       <c r="G11">
-        <v>0.2246128759423627</v>
+        <v>0.8496773942214304</v>
       </c>
       <c r="H11">
-        <v>0.1968681369884848</v>
+        <v>0.01914517947404448</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001474833633006156</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5471136653481068</v>
       </c>
       <c r="K11">
-        <v>1.175898018148587</v>
+        <v>0.4658389053675336</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1102098090416277</v>
       </c>
       <c r="M11">
-        <v>0.9336710627312996</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.538932663433954</v>
+        <v>0.3137833777246328</v>
       </c>
       <c r="O11">
-        <v>0.8387920314927442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7347682128995814</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.232216654476929</v>
+        <v>4.338885141317292</v>
       </c>
       <c r="C12">
-        <v>0.1276649849134941</v>
+        <v>0.9439763178158955</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6071958755160267</v>
+        <v>0.07259130036196204</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.145828162333302</v>
       </c>
       <c r="G12">
-        <v>0.2271523691500335</v>
+        <v>0.7321347590805232</v>
       </c>
       <c r="H12">
-        <v>0.1966602464683262</v>
+        <v>0.05785121945475424</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001503891108906252</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4848385062081206</v>
       </c>
       <c r="K12">
-        <v>1.204603666688826</v>
+        <v>0.3954788149731918</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1372039179120605</v>
       </c>
       <c r="M12">
-        <v>0.9585605852349914</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5318677165028163</v>
+        <v>0.2585208340713763</v>
       </c>
       <c r="O12">
-        <v>0.8438217757578457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7154787969817988</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.225676403176521</v>
+        <v>4.342445298092741</v>
       </c>
       <c r="C13">
-        <v>0.1272301491351584</v>
+        <v>0.9748856829751276</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6037306996574756</v>
+        <v>0.07555233192228972</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.9865813670197525</v>
       </c>
       <c r="G13">
-        <v>0.2265992788987035</v>
+        <v>0.6151158141862823</v>
       </c>
       <c r="H13">
-        <v>0.1967015216496222</v>
+        <v>0.1137626509029275</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001412989032898437</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4252517257138066</v>
       </c>
       <c r="K13">
-        <v>1.198420011748652</v>
+        <v>0.3360829922490396</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1655567512100191</v>
       </c>
       <c r="M13">
-        <v>0.9531941721176196</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5333816191211191</v>
+        <v>0.2051341857655302</v>
       </c>
       <c r="O13">
-        <v>0.8427181820687082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6765706985555866</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.204355229801138</v>
+        <v>4.28588347538448</v>
       </c>
       <c r="C14">
-        <v>0.1258123935164974</v>
+        <v>0.9851830915412734</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5924581394492634</v>
+        <v>0.07891421067030535</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.8769190163730229</v>
       </c>
       <c r="G14">
-        <v>0.2248190390769551</v>
+        <v>0.5340467450173207</v>
       </c>
       <c r="H14">
-        <v>0.1968494642879293</v>
+        <v>0.1633003875483894</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001410707794172517</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3849801965245234</v>
       </c>
       <c r="K14">
-        <v>1.178259039546731</v>
+        <v>0.3001462654637201</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.186759703366711</v>
       </c>
       <c r="M14">
-        <v>0.9357160576206383</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5383479858977367</v>
+        <v>0.1699084799198403</v>
       </c>
       <c r="O14">
-        <v>0.8391967093484425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.640814080511511</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.191301375164073</v>
+        <v>4.243969970851765</v>
       </c>
       <c r="C15">
-        <v>0.1249442286707705</v>
+        <v>0.9824580470767614</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5855746310145378</v>
+        <v>0.07968528927620966</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.8483602329439748</v>
       </c>
       <c r="G15">
-        <v>0.2237464607465185</v>
+        <v>0.5123502974958569</v>
       </c>
       <c r="H15">
-        <v>0.1969502465283881</v>
+        <v>0.1759124069067042</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001522286472987133</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3747137735232258</v>
       </c>
       <c r="K15">
-        <v>1.165913759539194</v>
+        <v>0.2921652285108429</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1916026104107758</v>
       </c>
       <c r="M15">
-        <v>0.9250274909919725</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5414123219279787</v>
+        <v>0.1613190667465574</v>
       </c>
       <c r="O15">
-        <v>0.8370987372456824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6282551692798961</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.116579638721618</v>
+        <v>3.976618157445387</v>
       </c>
       <c r="C16">
-        <v>0.1199726340667837</v>
+        <v>0.9236971377910379</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5464394682609424</v>
+        <v>0.07686110825938641</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.8353574562070634</v>
       </c>
       <c r="G16">
-        <v>0.2178659831772691</v>
+        <v>0.5008534650192757</v>
       </c>
       <c r="H16">
-        <v>0.1976801538720068</v>
+        <v>0.1638112781122913</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001754410110659244</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3743732576470791</v>
       </c>
       <c r="K16">
-        <v>1.09522152604157</v>
+        <v>0.3003235906716881</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1812728691334158</v>
       </c>
       <c r="M16">
-        <v>0.8640270735226139</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5593085608339834</v>
+        <v>0.1557007168446987</v>
       </c>
       <c r="O16">
-        <v>0.8259570838230559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5906977835576654</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.070808343896886</v>
+        <v>3.802276325257878</v>
       </c>
       <c r="C17">
-        <v>0.1169254870355303</v>
+        <v>0.8734467121773548</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5226939613033323</v>
+        <v>0.07266777213859843</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>0.8822269623336396</v>
       </c>
       <c r="G17">
-        <v>0.2144875351708109</v>
+        <v>0.5340917905945162</v>
       </c>
       <c r="H17">
-        <v>0.1982602666210553</v>
+        <v>0.1264649383810763</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002013021440488316</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3950861783542479</v>
       </c>
       <c r="K17">
-        <v>1.051895413172076</v>
+        <v>0.3248801594251383</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1617433716943566</v>
       </c>
       <c r="M17">
-        <v>0.82681539879826</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5705806368724318</v>
+        <v>0.1693948071137115</v>
       </c>
       <c r="O17">
-        <v>0.8198828482405389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5808083192213402</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.044504048019434</v>
+        <v>3.688309924182249</v>
       </c>
       <c r="C18">
-        <v>0.115173725343567</v>
+        <v>0.8239394027728508</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5091268148589165</v>
+        <v>0.06845148027425463</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.99369680208045</v>
       </c>
       <c r="G18">
-        <v>0.212625276767362</v>
+        <v>0.6164650909465337</v>
       </c>
       <c r="H18">
-        <v>0.1986411648127913</v>
+        <v>0.07377367973462157</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001883263713917671</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4396321106786587</v>
       </c>
       <c r="K18">
-        <v>1.026988035596304</v>
+        <v>0.3718009596060128</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1344066006845424</v>
       </c>
       <c r="M18">
-        <v>0.8054839430877792</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5771693876129369</v>
+        <v>0.2036722523030718</v>
       </c>
       <c r="O18">
-        <v>0.8166589076522257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5930566117504696</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.03560140289062</v>
+        <v>3.630491845961899</v>
       </c>
       <c r="C19">
-        <v>0.1145807467126616</v>
+        <v>0.7834500242738898</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5045482371107681</v>
+        <v>0.06685532563585816</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.151834759369805</v>
       </c>
       <c r="G19">
-        <v>0.2120083491112297</v>
+        <v>0.7323305870989287</v>
       </c>
       <c r="H19">
-        <v>0.1987781128101247</v>
+        <v>0.02827202809395857</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001954442148202951</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4997796099333414</v>
       </c>
       <c r="K19">
-        <v>1.018556767274816</v>
+        <v>0.4357624666197069</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1079663875899044</v>
       </c>
       <c r="M19">
-        <v>0.7982732882938066</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5794180930666109</v>
+        <v>0.2580275345458602</v>
       </c>
       <c r="O19">
-        <v>0.8156127672211397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6232049790588334</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.075678421177884</v>
+        <v>3.733028480977566</v>
       </c>
       <c r="C20">
-        <v>0.1172497672368138</v>
+        <v>0.7620487280029806</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5252122000915875</v>
+        <v>0.07215199822664786</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.446094995003151</v>
       </c>
       <c r="G20">
-        <v>0.2148387285286546</v>
+        <v>0.9500506454952387</v>
       </c>
       <c r="H20">
-        <v>0.1981935931714318</v>
+        <v>0.0009724352998388142</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001695230795949243</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6076207120501067</v>
       </c>
       <c r="K20">
-        <v>1.056506186379011</v>
+        <v>0.5508232782612339</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08151900044068938</v>
       </c>
       <c r="M20">
-        <v>0.8307691013083343</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5693697475956938</v>
+        <v>0.3645214020764342</v>
       </c>
       <c r="O20">
-        <v>0.8205013207014389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7015656434589488</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.210616512007647</v>
+        <v>4.200038256132018</v>
       </c>
       <c r="C21">
-        <v>0.1262287694697335</v>
+        <v>0.8472855570795446</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5957646979328786</v>
+        <v>0.07685813228424365</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.573369069837824</v>
       </c>
       <c r="G21">
-        <v>0.2253381954933786</v>
+        <v>1.046125682287595</v>
       </c>
       <c r="H21">
-        <v>0.1968038836943506</v>
+        <v>6.697285287726729E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001821524633704108</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6461812539388774</v>
       </c>
       <c r="K21">
-        <v>1.184179978532711</v>
+        <v>0.5761060489546281</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08496553779506399</v>
       </c>
       <c r="M21">
-        <v>0.940846168955737</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5368845833846194</v>
+        <v>0.4122720879640696</v>
       </c>
       <c r="O21">
-        <v>0.8402186912890102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7927427148107355</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.299066145194388</v>
+        <v>4.508442800497392</v>
       </c>
       <c r="C22">
-        <v>0.1321079363019066</v>
+        <v>0.9036723022764193</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.642810322216036</v>
+        <v>0.07960663040125837</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>1.649226687930437</v>
       </c>
       <c r="G22">
-        <v>0.2329912056500874</v>
+        <v>1.10596929418891</v>
       </c>
       <c r="H22">
-        <v>0.1963466845723403</v>
+        <v>2.298969992819977E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002116738663723083</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6699344326375467</v>
       </c>
       <c r="K22">
-        <v>1.267789757692015</v>
+        <v>0.5909215239136145</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08790271878477895</v>
       </c>
       <c r="M22">
-        <v>1.013546433006248</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5166447801429328</v>
+        <v>0.4374871506209814</v>
       </c>
       <c r="O22">
-        <v>0.8557205450389915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8493683107102399</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.251831976859677</v>
+        <v>4.344316420870371</v>
       </c>
       <c r="C23">
-        <v>0.128968963113735</v>
+        <v>0.871477610362632</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6176090894698518</v>
+        <v>0.0781471111669152</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.613403120956406</v>
       </c>
       <c r="G23">
-        <v>0.2288307380717782</v>
+        <v>1.079385828041197</v>
       </c>
       <c r="H23">
-        <v>0.1965478963545522</v>
+        <v>4.169673142317976E-06</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001613937230630746</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6599775466709588</v>
       </c>
       <c r="K23">
-        <v>1.223147533780804</v>
+        <v>0.5863594025790704</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08599832993701639</v>
       </c>
       <c r="M23">
-        <v>0.9746694584787008</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5273537944120612</v>
+        <v>0.4228727212626779</v>
       </c>
       <c r="O23">
-        <v>0.8471968941510966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8185490638443866</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.073476628047842</v>
+        <v>3.723550041137173</v>
       </c>
       <c r="C24">
-        <v>0.1171031599301386</v>
+        <v>0.7540599353028483</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5240734426413454</v>
+        <v>0.07268424604807766</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.472485393337607</v>
       </c>
       <c r="G24">
-        <v>0.2146797054158824</v>
+        <v>0.9725643971358693</v>
       </c>
       <c r="H24">
-        <v>0.198223588978756</v>
+        <v>0.0008121123002693409</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001197985917885447</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6192273727308191</v>
       </c>
       <c r="K24">
-        <v>1.054421652100331</v>
+        <v>0.5648126590903004</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07929207603818966</v>
       </c>
       <c r="M24">
-        <v>0.8289814404835525</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5699168539323658</v>
+        <v>0.3697535114847739</v>
       </c>
       <c r="O24">
-        <v>0.8202208761699268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7032099697058953</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8819060988249987</v>
+        <v>3.056623972866987</v>
       </c>
       <c r="C25">
-        <v>0.1043359928122314</v>
+        <v>0.6293066665458298</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4265815373116482</v>
+        <v>0.06691009849214336</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.325411088398653</v>
       </c>
       <c r="G25">
-        <v>0.2024739353460348</v>
+        <v>0.862662996954711</v>
       </c>
       <c r="H25">
-        <v>0.2018213670115259</v>
+        <v>0.003372463860773611</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002721310571010882</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5781944352397943</v>
       </c>
       <c r="K25">
-        <v>0.8728795678064785</v>
+        <v>0.5440953107090749</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07194582399751681</v>
       </c>
       <c r="M25">
-        <v>0.6745149969152351</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6198287091931078</v>
+        <v>0.3130763875071949</v>
       </c>
       <c r="O25">
-        <v>0.801329108071684</v>
+        <v>0.579512217507677</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567973646243161</v>
+        <v>2.566039326999089</v>
       </c>
       <c r="C2">
-        <v>0.5337471796013631</v>
+        <v>0.5641366750452335</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06273196139351978</v>
+        <v>0.06380604184287231</v>
       </c>
       <c r="F2">
-        <v>1.232300958778609</v>
+        <v>1.11711705405358</v>
       </c>
       <c r="G2">
-        <v>0.7988005546257995</v>
+        <v>0.6508108318920733</v>
       </c>
       <c r="H2">
-        <v>0.006500158773275366</v>
+        <v>0.005392868521109873</v>
       </c>
       <c r="I2">
-        <v>0.004537199753996024</v>
+        <v>0.003169406850995315</v>
       </c>
       <c r="J2">
-        <v>0.5569397386958457</v>
+        <v>0.5184622325329826</v>
       </c>
       <c r="K2">
-        <v>0.539067353259739</v>
+        <v>0.4463676331536028</v>
       </c>
       <c r="L2">
-        <v>0.06565664027105811</v>
+        <v>0.2053821201854475</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1339201868361783</v>
       </c>
       <c r="N2">
-        <v>0.269032981288575</v>
+        <v>0.07063767166228274</v>
       </c>
       <c r="O2">
-        <v>0.4874446806219765</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3023428852724521</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.500859329358363</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2362876734922</v>
+        <v>2.235938130684417</v>
       </c>
       <c r="C3">
-        <v>0.4722581877851155</v>
+        <v>0.4948836636528711</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05988712848409783</v>
+        <v>0.06142429170379771</v>
       </c>
       <c r="F3">
-        <v>1.164382296669373</v>
+        <v>1.064320141940769</v>
       </c>
       <c r="G3">
-        <v>0.7497545909313175</v>
+        <v>0.6198568745566888</v>
       </c>
       <c r="H3">
-        <v>0.009342614416931794</v>
+        <v>0.007770215315314299</v>
       </c>
       <c r="I3">
-        <v>0.006961566564486876</v>
+        <v>0.004867218457430766</v>
       </c>
       <c r="J3">
-        <v>0.5397543477927371</v>
+        <v>0.5047143257132518</v>
       </c>
       <c r="K3">
-        <v>0.531842645221122</v>
+        <v>0.4475789736116731</v>
       </c>
       <c r="L3">
-        <v>0.06178835079693101</v>
+        <v>0.2098476927746376</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1315835044787725</v>
       </c>
       <c r="N3">
-        <v>0.2409453073312449</v>
+        <v>0.0649341191541879</v>
       </c>
       <c r="O3">
-        <v>0.4259967914275578</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2705596377835633</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4370532163346468</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.032570113962834</v>
+        <v>2.032975461441026</v>
       </c>
       <c r="C4">
-        <v>0.4347466149796446</v>
+        <v>0.452696035888863</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05813365663917303</v>
+        <v>0.05995290038166434</v>
       </c>
       <c r="F4">
-        <v>1.123308964695795</v>
+        <v>1.032333823026207</v>
       </c>
       <c r="G4">
-        <v>0.7202383481801036</v>
+        <v>0.6013858990294949</v>
       </c>
       <c r="H4">
-        <v>0.0114135247295872</v>
+        <v>0.009505030845325092</v>
       </c>
       <c r="I4">
-        <v>0.008821658771092977</v>
+        <v>0.006201898954990348</v>
       </c>
       <c r="J4">
-        <v>0.5295950197811834</v>
+        <v>0.4962844773172321</v>
       </c>
       <c r="K4">
-        <v>0.5277048972765321</v>
+        <v>0.4484959752725182</v>
       </c>
       <c r="L4">
-        <v>0.05939464194943156</v>
+        <v>0.2125640988928374</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1308316217974586</v>
       </c>
       <c r="N4">
-        <v>0.2238209803852058</v>
+        <v>0.06144847739120607</v>
       </c>
       <c r="O4">
-        <v>0.3883349116100732</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2512218402687836</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3979380027587638</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9493976519596</v>
+        <v>1.950067278529389</v>
       </c>
       <c r="C5">
-        <v>0.4200017312833779</v>
+        <v>0.4360604912388339</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05741329919016547</v>
+        <v>0.05934784307686813</v>
       </c>
       <c r="F5">
-        <v>1.105502486124678</v>
+        <v>1.018339147862022</v>
       </c>
       <c r="G5">
-        <v>0.7069560700935824</v>
+        <v>0.5928171879274089</v>
       </c>
       <c r="H5">
-        <v>0.0123408321703747</v>
+        <v>0.01028244042213082</v>
       </c>
       <c r="I5">
-        <v>0.009752962927234154</v>
+        <v>0.006910952301724116</v>
       </c>
       <c r="J5">
-        <v>0.5248311237218104</v>
+        <v>0.4922267723611782</v>
       </c>
       <c r="K5">
-        <v>0.5252058158923241</v>
+        <v>0.4481982689471273</v>
       </c>
       <c r="L5">
-        <v>0.05849191757766548</v>
+        <v>0.2133334460633236</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1304914986899774</v>
       </c>
       <c r="N5">
-        <v>0.2171489073711683</v>
+        <v>0.06012164260395281</v>
       </c>
       <c r="O5">
-        <v>0.3731431147087036</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2436506950139119</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.38214304146193</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.93543507813348</v>
+        <v>1.936153878515256</v>
       </c>
       <c r="C6">
-        <v>0.4181579107431617</v>
+        <v>0.4338935451925749</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05728977458635054</v>
+        <v>0.05924422141884778</v>
       </c>
       <c r="F6">
-        <v>1.101068178679292</v>
+        <v>1.014726340983664</v>
       </c>
       <c r="G6">
-        <v>0.7030594389060241</v>
+        <v>0.5899816043933157</v>
       </c>
       <c r="H6">
-        <v>0.01250572667802305</v>
+        <v>0.01042067448769336</v>
       </c>
       <c r="I6">
-        <v>0.01002331281518831</v>
+        <v>0.007157937129444569</v>
       </c>
       <c r="J6">
-        <v>0.5231702317579163</v>
+        <v>0.4907920327620872</v>
       </c>
       <c r="K6">
-        <v>0.5237172032389452</v>
+        <v>0.4472836040490087</v>
       </c>
       <c r="L6">
-        <v>0.05843736631431184</v>
+        <v>0.213057954727244</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1301971773187685</v>
       </c>
       <c r="N6">
-        <v>0.2163841656855752</v>
+        <v>0.06001219861488494</v>
       </c>
       <c r="O6">
-        <v>0.3707961155874671</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2427238486283301</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3796833597323257</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.031036454579123</v>
+        <v>2.031338446687471</v>
       </c>
       <c r="C7">
-        <v>0.4361962464211047</v>
+        <v>0.4530599649502278</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05811386126675266</v>
+        <v>0.05997312851663583</v>
       </c>
       <c r="F7">
-        <v>1.119009330062156</v>
+        <v>1.026858733172297</v>
       </c>
       <c r="G7">
-        <v>0.7154143996081928</v>
+        <v>0.5998224245820012</v>
       </c>
       <c r="H7">
-        <v>0.01144176251970182</v>
+        <v>0.0095366635557586</v>
       </c>
       <c r="I7">
-        <v>0.00911762731810839</v>
+        <v>0.006541785517747201</v>
       </c>
       <c r="J7">
-        <v>0.5271404947900322</v>
+        <v>0.4877688589225642</v>
       </c>
       <c r="K7">
-        <v>0.524728410960229</v>
+        <v>0.4450388627322077</v>
       </c>
       <c r="L7">
-        <v>0.05964480024578478</v>
+        <v>0.2110017725939315</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1298080253946949</v>
       </c>
       <c r="N7">
-        <v>0.2246649966838206</v>
+        <v>0.06189273106076953</v>
       </c>
       <c r="O7">
-        <v>0.3886082923182457</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2522876548980975</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3983045747421059</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.45304424987637</v>
+        <v>2.45129013960991</v>
       </c>
       <c r="C8">
-        <v>0.5146953753848038</v>
+        <v>0.5388836213277841</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06173867738256167</v>
+        <v>0.0630996564386086</v>
       </c>
       <c r="F8">
-        <v>1.203378647087916</v>
+        <v>1.088389132244529</v>
       </c>
       <c r="G8">
-        <v>0.775605759668494</v>
+        <v>0.6430608870438732</v>
       </c>
       <c r="H8">
-        <v>0.007426575642530658</v>
+        <v>0.0061870541306564</v>
       </c>
       <c r="I8">
-        <v>0.005627808076502205</v>
+        <v>0.004096255185854325</v>
       </c>
       <c r="J8">
-        <v>0.5477743513677069</v>
+        <v>0.4901387187574926</v>
       </c>
       <c r="K8">
-        <v>0.5326333091679842</v>
+        <v>0.4401294321499201</v>
       </c>
       <c r="L8">
-        <v>0.06468067254527199</v>
+        <v>0.2041151847519735</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1308139047881092</v>
       </c>
       <c r="N8">
-        <v>0.2605648470895829</v>
+        <v>0.06962877650822819</v>
       </c>
       <c r="O8">
-        <v>0.4668764719396634</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2934530294543407</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4798850146771656</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.281837843145354</v>
+        <v>3.274501706657645</v>
       </c>
       <c r="C9">
-        <v>0.6680748983885962</v>
+        <v>0.7110949667348905</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0688620770257744</v>
+        <v>0.06907428496335655</v>
       </c>
       <c r="F9">
-        <v>1.381623335278775</v>
+        <v>1.225542894340137</v>
       </c>
       <c r="G9">
-        <v>0.9073865912956052</v>
+        <v>0.7307801342635685</v>
       </c>
       <c r="H9">
-        <v>0.002289508705131449</v>
+        <v>0.001896560749476084</v>
       </c>
       <c r="I9">
-        <v>0.00152863503029721</v>
+        <v>0.001265116913305775</v>
       </c>
       <c r="J9">
-        <v>0.5959166785361987</v>
+        <v>0.521330735975468</v>
       </c>
       <c r="K9">
-        <v>0.5559775170597447</v>
+        <v>0.4401272947005594</v>
       </c>
       <c r="L9">
-        <v>0.07393752783182705</v>
+        <v>0.1939564796339148</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1408671009631242</v>
       </c>
       <c r="N9">
-        <v>0.3303905224245796</v>
+        <v>0.08380053034192514</v>
       </c>
       <c r="O9">
-        <v>0.6202372388885848</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3731129976199981</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6392348682533253</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.895689422876387</v>
+        <v>3.882157592295925</v>
       </c>
       <c r="C10">
-        <v>0.7882553358764994</v>
+        <v>0.8382577872954471</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07342735682269996</v>
+        <v>0.07293359513916453</v>
       </c>
       <c r="F10">
-        <v>1.487962145305474</v>
+        <v>1.295413974518397</v>
       </c>
       <c r="G10">
-        <v>0.9863020691782509</v>
+        <v>0.7970199372397957</v>
       </c>
       <c r="H10">
-        <v>0.0006880487770732913</v>
+        <v>0.0006075209165032902</v>
       </c>
       <c r="I10">
-        <v>0.0008944233683774172</v>
+        <v>0.001086669613724389</v>
       </c>
       <c r="J10">
-        <v>0.6225523122215293</v>
+        <v>0.5015271449327372</v>
       </c>
       <c r="K10">
-        <v>0.5619489873701369</v>
+        <v>0.4264340847735895</v>
       </c>
       <c r="L10">
-        <v>0.08287221698034841</v>
+        <v>0.1811650825123223</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1458664913345267</v>
       </c>
       <c r="N10">
-        <v>0.3732983572940469</v>
+        <v>0.09804363447354802</v>
       </c>
       <c r="O10">
-        <v>0.7288328100099903</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4237693890263756</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.752500124823392</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.205353715627439</v>
+        <v>4.189914225729069</v>
       </c>
       <c r="C11">
-        <v>0.8866652601207079</v>
+        <v>0.9199539671898549</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07164002267051384</v>
+        <v>0.07033219964803739</v>
       </c>
       <c r="F11">
-        <v>1.306209522667316</v>
+        <v>1.121632225749806</v>
       </c>
       <c r="G11">
-        <v>0.8496773942214304</v>
+        <v>0.7200489224849065</v>
       </c>
       <c r="H11">
-        <v>0.01914517947404448</v>
+        <v>0.01910827202173593</v>
       </c>
       <c r="I11">
-        <v>0.001474833633006156</v>
+        <v>0.001814688774422812</v>
       </c>
       <c r="J11">
-        <v>0.5471136653481068</v>
+        <v>0.3835920123814702</v>
       </c>
       <c r="K11">
-        <v>0.4658389053675336</v>
+        <v>0.3457576216654594</v>
       </c>
       <c r="L11">
-        <v>0.1102098090416277</v>
+        <v>0.15011243888911</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1178768707491322</v>
       </c>
       <c r="N11">
-        <v>0.3137833777246328</v>
+        <v>0.1336759215707559</v>
       </c>
       <c r="O11">
-        <v>0.7347682128995814</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3588109439358647</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7581965722938264</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.338885141317292</v>
+        <v>4.323800530760423</v>
       </c>
       <c r="C12">
-        <v>0.9439763178158955</v>
+        <v>0.9643648440045354</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07259130036196204</v>
+        <v>0.07028924075475951</v>
       </c>
       <c r="F12">
-        <v>1.145828162333302</v>
+        <v>0.9804705906054352</v>
       </c>
       <c r="G12">
-        <v>0.7321347590805232</v>
+        <v>0.6409071330097049</v>
       </c>
       <c r="H12">
-        <v>0.05785121945475424</v>
+        <v>0.05782094860561671</v>
       </c>
       <c r="I12">
-        <v>0.001503891108906252</v>
+        <v>0.001844216893377215</v>
       </c>
       <c r="J12">
-        <v>0.4848385062081206</v>
+        <v>0.3208517457433402</v>
       </c>
       <c r="K12">
-        <v>0.3954788149731918</v>
+        <v>0.2942507951728182</v>
       </c>
       <c r="L12">
-        <v>0.1372039179120605</v>
+        <v>0.1320110330548854</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09790774478938147</v>
       </c>
       <c r="N12">
-        <v>0.2585208340713763</v>
+        <v>0.1653882626193095</v>
       </c>
       <c r="O12">
-        <v>0.7154787969817988</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2966903633053732</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7372752848479536</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.342445298092741</v>
+        <v>4.330030283968199</v>
       </c>
       <c r="C13">
-        <v>0.9748856829751276</v>
+        <v>0.9881087775004858</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07555233192228972</v>
+        <v>0.07253932247005235</v>
       </c>
       <c r="F13">
-        <v>0.9865813670197525</v>
+        <v>0.8525753039623822</v>
       </c>
       <c r="G13">
-        <v>0.6151158141862823</v>
+        <v>0.5452359965569116</v>
       </c>
       <c r="H13">
-        <v>0.1137626509029275</v>
+        <v>0.1137078412201902</v>
       </c>
       <c r="I13">
-        <v>0.001412989032898437</v>
+        <v>0.001738975677835874</v>
       </c>
       <c r="J13">
-        <v>0.4252517257138066</v>
+        <v>0.2932179648972095</v>
       </c>
       <c r="K13">
-        <v>0.3360829922490396</v>
+        <v>0.2581894881317908</v>
       </c>
       <c r="L13">
-        <v>0.1655567512100191</v>
+        <v>0.1204096840727296</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08220002404741322</v>
       </c>
       <c r="N13">
-        <v>0.2051341857655302</v>
+        <v>0.1944111917567071</v>
       </c>
       <c r="O13">
-        <v>0.6765706985555866</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2349025904968371</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6952169489978246</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.28588347538448</v>
+        <v>4.276342535417427</v>
       </c>
       <c r="C14">
-        <v>0.9851830915412734</v>
+        <v>0.9959834096265467</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07891421067030535</v>
+        <v>0.07577716217199892</v>
       </c>
       <c r="F14">
-        <v>0.8769190163730229</v>
+        <v>0.7686640039428028</v>
       </c>
       <c r="G14">
-        <v>0.5340467450173207</v>
+        <v>0.4727375217080976</v>
       </c>
       <c r="H14">
-        <v>0.1633003875483894</v>
+        <v>0.163206898974579</v>
       </c>
       <c r="I14">
-        <v>0.001410707794172517</v>
+        <v>0.001723872026133222</v>
       </c>
       <c r="J14">
-        <v>0.3849801965245234</v>
+        <v>0.2856936309588534</v>
       </c>
       <c r="K14">
-        <v>0.3001462654637201</v>
+        <v>0.2391842826220199</v>
       </c>
       <c r="L14">
-        <v>0.186759703366711</v>
+        <v>0.1146613309871629</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07315019901066222</v>
       </c>
       <c r="N14">
-        <v>0.1699084799198403</v>
+        <v>0.2137591002401038</v>
       </c>
       <c r="O14">
-        <v>0.640814080511511</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1935784269771972</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6566218435740652</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.243969970851765</v>
+        <v>4.235577792125468</v>
       </c>
       <c r="C15">
-        <v>0.9824580470767614</v>
+        <v>0.9938413791297478</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07968528927620966</v>
+        <v>0.07669400234388846</v>
       </c>
       <c r="F15">
-        <v>0.8483602329439748</v>
+        <v>0.7484636478480908</v>
       </c>
       <c r="G15">
-        <v>0.5123502974958569</v>
+        <v>0.4511621953694913</v>
       </c>
       <c r="H15">
-        <v>0.1759124069067042</v>
+        <v>0.1757970632678649</v>
       </c>
       <c r="I15">
-        <v>0.001522286472987133</v>
+        <v>0.001843600042906068</v>
       </c>
       <c r="J15">
-        <v>0.3747137735232258</v>
+        <v>0.2882108982891438</v>
       </c>
       <c r="K15">
-        <v>0.2921652285108429</v>
+        <v>0.2360670250109909</v>
       </c>
       <c r="L15">
-        <v>0.1916026104107758</v>
+        <v>0.1138535311993056</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07132164477392777</v>
       </c>
       <c r="N15">
-        <v>0.1613190667465574</v>
+        <v>0.2172852352989025</v>
       </c>
       <c r="O15">
-        <v>0.6282551692798961</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1832828309757559</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6430797070572751</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.976618157445387</v>
+        <v>3.971945081572926</v>
       </c>
       <c r="C16">
-        <v>0.9236971377910379</v>
+        <v>0.9448619347997749</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07686110825938641</v>
+        <v>0.07516143092007965</v>
       </c>
       <c r="F16">
-        <v>0.8353574562070634</v>
+        <v>0.7539612282957151</v>
       </c>
       <c r="G16">
-        <v>0.5008534650192757</v>
+        <v>0.4236138493024555</v>
       </c>
       <c r="H16">
-        <v>0.1638112781122913</v>
+        <v>0.1635594693114228</v>
       </c>
       <c r="I16">
-        <v>0.001754410110659244</v>
+        <v>0.00196838785488751</v>
       </c>
       <c r="J16">
-        <v>0.3743732576470791</v>
+        <v>0.3315531441252659</v>
       </c>
       <c r="K16">
-        <v>0.3003235906716881</v>
+        <v>0.2512409921923364</v>
       </c>
       <c r="L16">
-        <v>0.1812728691334158</v>
+        <v>0.1200060927672695</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07508529244418938</v>
       </c>
       <c r="N16">
-        <v>0.1557007168446987</v>
+        <v>0.2005559571335453</v>
       </c>
       <c r="O16">
-        <v>0.5906977835576654</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1751356123920331</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6030842957555365</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.802276325257878</v>
+        <v>3.798612883679027</v>
       </c>
       <c r="C17">
-        <v>0.8734467121773548</v>
+        <v>0.9012012721408951</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07266777213859843</v>
+        <v>0.07163979180965274</v>
       </c>
       <c r="F17">
-        <v>0.8822269623336396</v>
+        <v>0.8010411494911551</v>
       </c>
       <c r="G17">
-        <v>0.5340917905945162</v>
+        <v>0.4420576652127579</v>
       </c>
       <c r="H17">
-        <v>0.1264649383810763</v>
+        <v>0.1261206587087713</v>
       </c>
       <c r="I17">
-        <v>0.002013021440488316</v>
+        <v>0.002137862861417261</v>
       </c>
       <c r="J17">
-        <v>0.3950861783542479</v>
+        <v>0.3675304518492908</v>
       </c>
       <c r="K17">
-        <v>0.3248801594251383</v>
+        <v>0.2729044454138609</v>
       </c>
       <c r="L17">
-        <v>0.1617433716943566</v>
+        <v>0.1282971844179581</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08230777480592977</v>
       </c>
       <c r="N17">
-        <v>0.1693948071137115</v>
+        <v>0.1783043678038965</v>
       </c>
       <c r="O17">
-        <v>0.5808083192213402</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1899628697152593</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5929940360742378</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.688309924182249</v>
+        <v>3.683921030779118</v>
       </c>
       <c r="C18">
-        <v>0.8239394027728508</v>
+        <v>0.8587446756202723</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06845148027425463</v>
+        <v>0.06775358939749498</v>
       </c>
       <c r="F18">
-        <v>0.99369680208045</v>
+        <v>0.8986818898293407</v>
       </c>
       <c r="G18">
-        <v>0.6164650909465337</v>
+        <v>0.5022691127999934</v>
       </c>
       <c r="H18">
-        <v>0.07377367973462157</v>
+        <v>0.07339970190993483</v>
       </c>
       <c r="I18">
-        <v>0.001883263713917671</v>
+        <v>0.001921283171617105</v>
       </c>
       <c r="J18">
-        <v>0.4396321106786587</v>
+        <v>0.4110132988851376</v>
       </c>
       <c r="K18">
-        <v>0.3718009596060128</v>
+        <v>0.3079313707340177</v>
       </c>
       <c r="L18">
-        <v>0.1344066006845424</v>
+        <v>0.1414225328905268</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09512724145018936</v>
       </c>
       <c r="N18">
-        <v>0.2036722523030718</v>
+        <v>0.1498108524931538</v>
       </c>
       <c r="O18">
-        <v>0.5930566117504696</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2285860559893038</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6066941556342869</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.630491845961899</v>
+        <v>3.624299012086055</v>
       </c>
       <c r="C19">
-        <v>0.7834500242738898</v>
+        <v>0.8257068244090533</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06685532563585816</v>
+        <v>0.06632101586240058</v>
       </c>
       <c r="F19">
-        <v>1.151834759369805</v>
+        <v>1.032687187322779</v>
       </c>
       <c r="G19">
-        <v>0.7323305870989287</v>
+        <v>0.5890111629645958</v>
       </c>
       <c r="H19">
-        <v>0.02827202809395857</v>
+        <v>0.027938178687819</v>
       </c>
       <c r="I19">
-        <v>0.001954442148202951</v>
+        <v>0.002039203434756054</v>
       </c>
       <c r="J19">
-        <v>0.4997796099333414</v>
+        <v>0.4597530413009849</v>
       </c>
       <c r="K19">
-        <v>0.4357624666197069</v>
+        <v>0.352926581405093</v>
       </c>
       <c r="L19">
-        <v>0.1079663875899044</v>
+        <v>0.1580564193398253</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1122104677521598</v>
       </c>
       <c r="N19">
-        <v>0.2580275345458602</v>
+        <v>0.1224361233563869</v>
       </c>
       <c r="O19">
-        <v>0.6232049790588334</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2900650922689181</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6393897131523261</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.733028480977566</v>
+        <v>3.721914361726363</v>
       </c>
       <c r="C20">
-        <v>0.7620487280029806</v>
+        <v>0.8140191708644693</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07215199822664786</v>
+        <v>0.07172548880063978</v>
       </c>
       <c r="F20">
-        <v>1.446094995003151</v>
+        <v>1.271409116758761</v>
       </c>
       <c r="G20">
-        <v>0.9500506454952387</v>
+        <v>0.7579467314577357</v>
       </c>
       <c r="H20">
-        <v>0.0009724352998388142</v>
+        <v>0.0008244718749574886</v>
       </c>
       <c r="I20">
-        <v>0.001695230795949243</v>
+        <v>0.0019611947065723</v>
       </c>
       <c r="J20">
-        <v>0.6076207120501067</v>
+        <v>0.5217809113105858</v>
       </c>
       <c r="K20">
-        <v>0.5508232782612339</v>
+        <v>0.4264692691143104</v>
       </c>
       <c r="L20">
-        <v>0.08151900044068938</v>
+        <v>0.1832115237150553</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1430171060889052</v>
       </c>
       <c r="N20">
-        <v>0.3645214020764342</v>
+        <v>0.09482556411754217</v>
       </c>
       <c r="O20">
-        <v>0.7015656434589488</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4118127258925171</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7234034530946332</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.200038256132018</v>
+        <v>4.180177420828784</v>
       </c>
       <c r="C21">
-        <v>0.8472855570795446</v>
+        <v>0.8853996529336996</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07685813228424365</v>
+        <v>0.0767807947931427</v>
       </c>
       <c r="F21">
-        <v>1.573369069837824</v>
+        <v>1.330314938607742</v>
       </c>
       <c r="G21">
-        <v>1.046125682287595</v>
+        <v>0.8850996922986951</v>
       </c>
       <c r="H21">
-        <v>6.697285287726729E-05</v>
+        <v>6.446399410320325E-05</v>
       </c>
       <c r="I21">
-        <v>0.001821524633704108</v>
+        <v>0.00220687138935638</v>
       </c>
       <c r="J21">
-        <v>0.6461812539388774</v>
+        <v>0.4165763645499112</v>
       </c>
       <c r="K21">
-        <v>0.5761060489546281</v>
+        <v>0.4114673553392478</v>
       </c>
       <c r="L21">
-        <v>0.08496553779506399</v>
+        <v>0.1721273345842036</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1455672316693786</v>
       </c>
       <c r="N21">
-        <v>0.4122720879640696</v>
+        <v>0.1053475470607523</v>
       </c>
       <c r="O21">
-        <v>0.7927427148107355</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4731751667069233</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8214071089132133</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.508442800497392</v>
+        <v>4.482248442584762</v>
       </c>
       <c r="C22">
-        <v>0.9036723022764193</v>
+        <v>0.9305317433758376</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07960663040125837</v>
+        <v>0.07990762818629182</v>
       </c>
       <c r="F22">
-        <v>1.649226687930437</v>
+        <v>1.359793784728197</v>
       </c>
       <c r="G22">
-        <v>1.10596929418891</v>
+        <v>0.9734475979039843</v>
       </c>
       <c r="H22">
-        <v>2.298969992819977E-05</v>
+        <v>1.127522960642224E-05</v>
       </c>
       <c r="I22">
-        <v>0.002116738663723083</v>
+        <v>0.002353648800955455</v>
       </c>
       <c r="J22">
-        <v>0.6699344326375467</v>
+        <v>0.3505365483945297</v>
       </c>
       <c r="K22">
-        <v>0.5909215239136145</v>
+        <v>0.3993916036201952</v>
       </c>
       <c r="L22">
-        <v>0.08790271878477895</v>
+        <v>0.1643328093108742</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1465520194948908</v>
       </c>
       <c r="N22">
-        <v>0.4374871506209814</v>
+        <v>0.1135414463368249</v>
       </c>
       <c r="O22">
-        <v>0.8493683107102399</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5072909504156939</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8825589691045295</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.344316420870371</v>
+        <v>4.321898171533633</v>
       </c>
       <c r="C23">
-        <v>0.871477610362632</v>
+        <v>0.9072754188771341</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0781471111669152</v>
+        <v>0.0780990600411684</v>
       </c>
       <c r="F23">
-        <v>1.613403120956406</v>
+        <v>1.352490951967638</v>
       </c>
       <c r="G23">
-        <v>1.079385828041197</v>
+        <v>0.9234056792406022</v>
       </c>
       <c r="H23">
-        <v>4.169673142317976E-06</v>
+        <v>6.61460127693303E-06</v>
       </c>
       <c r="I23">
-        <v>0.001613937230630746</v>
+        <v>0.001885228732101396</v>
       </c>
       <c r="J23">
-        <v>0.6599775466709588</v>
+        <v>0.398730697550377</v>
       </c>
       <c r="K23">
-        <v>0.5863594025790704</v>
+        <v>0.4107589915411083</v>
       </c>
       <c r="L23">
-        <v>0.08599832993701639</v>
+        <v>0.1701150165230167</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1480631680647697</v>
       </c>
       <c r="N23">
-        <v>0.4228727212626779</v>
+        <v>0.1081799271149535</v>
       </c>
       <c r="O23">
-        <v>0.8185490638443866</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4871463549546888</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.848990564704053</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.723550041137173</v>
+        <v>3.712230700654061</v>
       </c>
       <c r="C24">
-        <v>0.7540599353028483</v>
+        <v>0.806774640466756</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07268424604807766</v>
+        <v>0.07228390835458853</v>
       </c>
       <c r="F24">
-        <v>1.472485393337607</v>
+        <v>1.293901028614727</v>
       </c>
       <c r="G24">
-        <v>0.9725643971358693</v>
+        <v>0.7749689745084112</v>
       </c>
       <c r="H24">
-        <v>0.0008121123002693409</v>
+        <v>0.0006691231537045983</v>
       </c>
       <c r="I24">
-        <v>0.001197985917885447</v>
+        <v>0.001366044827428858</v>
       </c>
       <c r="J24">
-        <v>0.6192273727308191</v>
+        <v>0.5318387821634332</v>
       </c>
       <c r="K24">
-        <v>0.5648126590903004</v>
+        <v>0.4367315640963767</v>
       </c>
       <c r="L24">
-        <v>0.07929207603818966</v>
+        <v>0.187000747153629</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1469113892837477</v>
       </c>
       <c r="N24">
-        <v>0.3697535114847739</v>
+        <v>0.09209871568964445</v>
       </c>
       <c r="O24">
-        <v>0.7032099697058953</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4179859547875111</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7253541899302576</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.056623972866987</v>
+        <v>3.0513059914216</v>
       </c>
       <c r="C25">
-        <v>0.6293066665458298</v>
+        <v>0.6686494325126375</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06691009849214336</v>
+        <v>0.0673891185736597</v>
       </c>
       <c r="F25">
-        <v>1.325411088398653</v>
+        <v>1.184173307595003</v>
       </c>
       <c r="G25">
-        <v>0.862662996954711</v>
+        <v>0.6960154976957966</v>
       </c>
       <c r="H25">
-        <v>0.003372463860773611</v>
+        <v>0.002793449757850563</v>
       </c>
       <c r="I25">
-        <v>0.002721310571010882</v>
+        <v>0.002270497813996464</v>
       </c>
       <c r="J25">
-        <v>0.5781944352397943</v>
+        <v>0.5181506584544309</v>
       </c>
       <c r="K25">
-        <v>0.5440953107090749</v>
+        <v>0.4373908746689494</v>
       </c>
       <c r="L25">
-        <v>0.07194582399751681</v>
+        <v>0.1957369859138609</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.13660727471634</v>
       </c>
       <c r="N25">
-        <v>0.3130763875071949</v>
+        <v>0.0803099093381725</v>
       </c>
       <c r="O25">
-        <v>0.579512217507677</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3526459201670349</v>
       </c>
       <c r="Q25">
+        <v>0.5966470944518036</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
